--- a/NET_DOC/21JUL/New Microsoft Excel Worksheet.xlsx
+++ b/NET_DOC/21JUL/New Microsoft Excel Worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\green\Desktop\Github\Daily\Network Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8235FEF5-CB1C-4239-96ED-FDE17286FFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFBF6C2-36D4-408E-9209-C37ABE62ED07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="90">
   <si>
     <t>RUN A WEBSITE COST</t>
   </si>
@@ -299,9 +299,6 @@
   </si>
   <si>
     <t>Reserve</t>
-  </si>
-  <si>
-    <t>Reserved2</t>
   </si>
   <si>
     <t>static</t>
@@ -529,7 +526,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -570,15 +567,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -588,12 +576,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -609,85 +591,40 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -699,84 +636,13 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="16"/>
         <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -820,6 +686,150 @@
       </font>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1023,26 +1033,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{23A29AF7-2FB6-40EA-9868-370CCDCE25F0}" name="Table1" displayName="Table1" ref="F9:L32" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{23A29AF7-2FB6-40EA-9868-370CCDCE25F0}" name="Table1" displayName="Table1" ref="F9:L32" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="F9:L32" xr:uid="{23A29AF7-2FB6-40EA-9868-370CCDCE25F0}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{2BB7E5B1-E611-4BEC-AACF-1B08351D108A}" name="Network" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{2BB7E5B1-E611-4BEC-AACF-1B08351D108A}" name="Network" dataDxfId="14">
       <calculatedColumnFormula>A10&amp;"."&amp;B10&amp;"."&amp;C10&amp;"."&amp;D10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A3CF4762-4B63-4EA3-9E5F-803CAD598AAF}" name="Static" dataDxfId="5" dataCellStyle="Comma">
+    <tableColumn id="2" xr3:uid="{A3CF4762-4B63-4EA3-9E5F-803CAD598AAF}" name="Static" dataDxfId="13" dataCellStyle="Comma">
       <calculatedColumnFormula>COUNTIFS($P:$P,$C10,$W:$W,"static")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{49704FEF-85F5-4146-9740-878CAB9CCFBD}" name="DHCP" dataDxfId="6" dataCellStyle="Comma">
+    <tableColumn id="3" xr3:uid="{49704FEF-85F5-4146-9740-878CAB9CCFBD}" name="DHCP" dataDxfId="12" dataCellStyle="Comma">
       <calculatedColumnFormula>COUNTIFS($P:$P,$C10,$W:$W,"DHCP")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F585B433-DEBE-4EEE-9FFA-6360331C526D}" name="Reserved2" dataDxfId="7" dataCellStyle="Comma">
+    <tableColumn id="4" xr3:uid="{F585B433-DEBE-4EEE-9FFA-6360331C526D}" name="Reserved" dataDxfId="11" dataCellStyle="Comma">
       <calculatedColumnFormula>COUNTIFS($P:$P,$C10,$W:$W,"reserve")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{ECC6306B-3832-4BFD-9C9A-D93B112BE33C}" name="Column1" dataDxfId="14" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{C2EC32B1-3597-4B9B-8151-D9C17D59A72C}" name="Total" dataDxfId="10">
+    <tableColumn id="5" xr3:uid="{ECC6306B-3832-4BFD-9C9A-D93B112BE33C}" name="Column1" dataDxfId="10" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{C2EC32B1-3597-4B9B-8151-D9C17D59A72C}" name="Total" dataDxfId="9">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[Static]:[Column1]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{9E87E47B-AB50-4459-AD77-7364C2F4AB5F}" name="In total usage address:" dataDxfId="9">
+    <tableColumn id="7" xr3:uid="{9E87E47B-AB50-4459-AD77-7364C2F4AB5F}" name="In total usage address:" dataDxfId="8">
       <calculatedColumnFormula>254-Table1[[#This Row],[Total]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1051,25 +1061,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A3AE0FB5-02C4-4472-B525-95B317F7C619}" name="Table2" displayName="Table2" ref="F9:M74" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A3AE0FB5-02C4-4472-B525-95B317F7C619}" name="Table2" displayName="Table2" ref="F9:M74" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="F9:M74" xr:uid="{A3AE0FB5-02C4-4472-B525-95B317F7C619}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{D8B7086B-B5BE-4BBF-B382-849E5E6BDBDF}" name="Networking" dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{D8B7086B-B5BE-4BBF-B382-849E5E6BDBDF}" name="Networking" dataDxfId="6">
       <calculatedColumnFormula>A10&amp;"."&amp;B10&amp;"."&amp;C10&amp;"."&amp;D10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{C27F23AA-8881-4D38-91D8-745BECCD2B6C}" name="Static" dataDxfId="1" dataCellStyle="Comma">
+    <tableColumn id="2" xr3:uid="{C27F23AA-8881-4D38-91D8-745BECCD2B6C}" name="Static" dataDxfId="5" dataCellStyle="Comma">
       <calculatedColumnFormula>COUNTIFS($S:$S,$C10,$Z:$Z,"static")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{FBE56586-5F1B-4125-BE28-9C1D2B1B540F}" name="DHCP" dataDxfId="3" dataCellStyle="Comma">
+    <tableColumn id="3" xr3:uid="{FBE56586-5F1B-4125-BE28-9C1D2B1B540F}" name="DHCP" dataDxfId="4" dataCellStyle="Comma">
       <calculatedColumnFormula>COUNTIFS($S:$S,$C10,$Z:$Z,"DHCP")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{56AEFEBE-13A6-4250-83AA-05DAF60DF457}" name="Reserved" dataDxfId="2" dataCellStyle="Comma">
+    <tableColumn id="4" xr3:uid="{56AEFEBE-13A6-4250-83AA-05DAF60DF457}" name="Reserved" dataDxfId="3" dataCellStyle="Comma">
       <calculatedColumnFormula>COUNTIFS($S:$S,$C10,$Z:$Z,"reserve")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{92C3A52F-2F8F-4331-B9AA-090A908DF070}" name="Column1" dataDxfId="13" dataCellStyle="Comma">
+    <tableColumn id="5" xr3:uid="{92C3A52F-2F8F-4331-B9AA-090A908DF070}" name="Column1" dataDxfId="2" dataCellStyle="Comma">
       <calculatedColumnFormula>COUNTIFS($S:$S,$C9+1+1+1,$T:$T,"&lt;255")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{65FC15D4-83B0-4FD2-A0AF-C9AECF617ACB}" name="Total" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{65FC15D4-83B0-4FD2-A0AF-C9AECF617ACB}" name="Total" dataDxfId="1"/>
     <tableColumn id="7" xr3:uid="{EF5F4AF5-2C90-4C3B-896F-EABC8017796C}" name="In total usage address:"/>
     <tableColumn id="8" xr3:uid="{D0911EEC-BEB8-42D4-831D-094391974FD0}" name="Column8"/>
   </tableColumns>
@@ -1358,17 +1368,17 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="30"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="40"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
@@ -2747,20 +2757,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{488CE08B-0320-41C7-A7B9-B489E853E697}">
   <dimension ref="A2:W73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="9.140625" customWidth="1"/>
+    <col min="1" max="3" width="9.140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="8.140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="9.140625" collapsed="1"/>
     <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="12.7109375" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
     <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" style="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="2.85546875" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="19" max="20" width="12.7109375" customWidth="1"/>
     <col min="21" max="21" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="13.7109375" bestFit="1" customWidth="1"/>
@@ -2768,7 +2782,7 @@
   <sheetData>
     <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="41" t="s">
         <v>37</v>
       </c>
       <c r="G3" s="14" t="s">
@@ -2776,13 +2790,13 @@
       </c>
       <c r="H3" s="14"/>
       <c r="I3" s="15"/>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="13"/>
+      <c r="K3" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="L3" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="14"/>
       <c r="M3" s="15"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -2790,13 +2804,13 @@
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
       <c r="I4" s="18"/>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="16"/>
+      <c r="K4" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="26" t="s">
+      <c r="L4" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="L4" s="17"/>
       <c r="M4" s="18"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -2804,14 +2818,14 @@
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
       <c r="I5" s="18"/>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="16"/>
+      <c r="K5" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="34">
-        <f>254-K6</f>
-        <v>195</v>
-      </c>
-      <c r="L5" s="17"/>
+      <c r="L5" s="31">
+        <f>254-L6</f>
+        <v>59</v>
+      </c>
       <c r="M5" s="18"/>
     </row>
     <row r="6" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2819,36 +2833,39 @@
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
       <c r="I6" s="21"/>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="19"/>
+      <c r="K6" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="31">
-        <f>K11</f>
+      <c r="L6" s="28">
+        <f>L11</f>
+        <v>195</v>
+      </c>
+      <c r="M6" s="21"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="K7" s="33"/>
+    </row>
+    <row r="9" spans="1:23" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F9" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="L6" s="20"/>
-      <c r="M6" s="21"/>
-    </row>
-    <row r="9" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F9" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="I9" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="J9" s="37" t="s">
+      <c r="I9" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="L9" s="36" t="s">
+      <c r="L9" s="47" t="s">
         <v>44</v>
       </c>
       <c r="N9" s="1"/>
@@ -2880,15 +2897,15 @@
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="35">
+      <c r="G10" s="32">
         <f t="shared" ref="G10:G32" si="0">COUNTIFS($P:$P,$C10,$W:$W,"static")</f>
         <v>0</v>
       </c>
-      <c r="H10" s="35">
+      <c r="H10" s="32">
         <f t="shared" ref="H10:H32" si="1">COUNTIFS($P:$P,$C10,$W:$W,"DHCP")</f>
         <v>0</v>
       </c>
-      <c r="I10" s="35">
+      <c r="I10" s="32">
         <f t="shared" ref="I10:I32" si="2">COUNTIFS($P:$P,$C10,$W:$W,"reserve")</f>
         <v>0</v>
       </c>
@@ -2897,7 +2914,7 @@
         <f>SUM(Table1[[#This Row],[Static]:[Column1]])</f>
         <v>0</v>
       </c>
-      <c r="L10" s="33"/>
+      <c r="L10" s="30"/>
       <c r="N10" s="13">
         <v>192</v>
       </c>
@@ -2939,7 +2956,7 @@
       </c>
       <c r="E11" s="17"/>
       <c r="F11" t="str">
-        <f t="shared" ref="F10:F32" si="3">A11&amp;"."&amp;B11&amp;"."&amp;C11&amp;"."&amp;D11</f>
+        <f t="shared" ref="F11:F32" si="3">A11&amp;"."&amp;B11&amp;"."&amp;C11&amp;"."&amp;D11</f>
         <v>192.168.1.0</v>
       </c>
       <c r="G11" s="22">
@@ -2962,7 +2979,7 @@
         <f>SUM(Table1[[#This Row],[Static]:[Column1]])</f>
         <v>59</v>
       </c>
-      <c r="L11" s="32">
+      <c r="L11" s="29">
         <f>254-Table1[[#This Row],[Total]]</f>
         <v>195</v>
       </c>
@@ -3019,7 +3036,7 @@
         <f>SUM(Table1[[#This Row],[Static]:[Column1]])</f>
         <v>0</v>
       </c>
-      <c r="L12" s="32"/>
+      <c r="L12" s="29"/>
       <c r="N12" s="13">
         <v>192</v>
       </c>
@@ -3070,7 +3087,7 @@
         <f>SUM(Table1[[#This Row],[Static]:[Column1]])</f>
         <v>0</v>
       </c>
-      <c r="L13" s="32"/>
+      <c r="L13" s="29"/>
       <c r="N13" s="13">
         <v>192</v>
       </c>
@@ -3121,7 +3138,7 @@
         <f>SUM(Table1[[#This Row],[Static]:[Column1]])</f>
         <v>0</v>
       </c>
-      <c r="L14" s="32"/>
+      <c r="L14" s="29"/>
       <c r="N14" s="13">
         <v>192</v>
       </c>
@@ -3172,7 +3189,7 @@
         <f>SUM(Table1[[#This Row],[Static]:[Column1]])</f>
         <v>0</v>
       </c>
-      <c r="L15" s="32"/>
+      <c r="L15" s="29"/>
       <c r="N15" s="13">
         <v>192</v>
       </c>
@@ -3223,7 +3240,7 @@
         <f>SUM(Table1[[#This Row],[Static]:[Column1]])</f>
         <v>0</v>
       </c>
-      <c r="L16" s="32"/>
+      <c r="L16" s="29"/>
       <c r="N16" s="13">
         <v>192</v>
       </c>
@@ -3274,7 +3291,7 @@
         <f>SUM(Table1[[#This Row],[Static]:[Column1]])</f>
         <v>0</v>
       </c>
-      <c r="L17" s="32"/>
+      <c r="L17" s="29"/>
       <c r="N17" s="13">
         <v>192</v>
       </c>
@@ -3325,7 +3342,7 @@
         <f>SUM(Table1[[#This Row],[Static]:[Column1]])</f>
         <v>0</v>
       </c>
-      <c r="L18" s="32"/>
+      <c r="L18" s="29"/>
       <c r="N18" s="13">
         <v>192</v>
       </c>
@@ -3373,7 +3390,7 @@
         <f>SUM(Table1[[#This Row],[Static]:[Column1]])</f>
         <v>0</v>
       </c>
-      <c r="L19" s="32"/>
+      <c r="L19" s="29"/>
       <c r="N19" s="13">
         <v>192</v>
       </c>
@@ -3421,7 +3438,7 @@
         <f>SUM(Table1[[#This Row],[Static]:[Column1]])</f>
         <v>0</v>
       </c>
-      <c r="L20" s="32"/>
+      <c r="L20" s="29"/>
       <c r="N20" s="13">
         <v>192</v>
       </c>
@@ -3469,7 +3486,7 @@
         <f>SUM(Table1[[#This Row],[Static]:[Column1]])</f>
         <v>0</v>
       </c>
-      <c r="L21" s="32"/>
+      <c r="L21" s="29"/>
       <c r="N21" s="13">
         <v>192</v>
       </c>
@@ -3517,7 +3534,7 @@
         <f>SUM(Table1[[#This Row],[Static]:[Column1]])</f>
         <v>0</v>
       </c>
-      <c r="L22" s="32"/>
+      <c r="L22" s="29"/>
       <c r="N22" s="13">
         <v>192</v>
       </c>
@@ -3565,7 +3582,7 @@
         <f>SUM(Table1[[#This Row],[Static]:[Column1]])</f>
         <v>0</v>
       </c>
-      <c r="L23" s="32"/>
+      <c r="L23" s="29"/>
       <c r="N23" s="13">
         <v>192</v>
       </c>
@@ -3613,7 +3630,7 @@
         <f>SUM(Table1[[#This Row],[Static]:[Column1]])</f>
         <v>0</v>
       </c>
-      <c r="L24" s="32"/>
+      <c r="L24" s="29"/>
       <c r="N24" s="13">
         <v>192</v>
       </c>
@@ -3661,7 +3678,7 @@
         <f>SUM(Table1[[#This Row],[Static]:[Column1]])</f>
         <v>0</v>
       </c>
-      <c r="L25" s="32"/>
+      <c r="L25" s="29"/>
       <c r="N25" s="13">
         <v>192</v>
       </c>
@@ -3709,7 +3726,7 @@
         <f>SUM(Table1[[#This Row],[Static]:[Column1]])</f>
         <v>0</v>
       </c>
-      <c r="L26" s="32"/>
+      <c r="L26" s="29"/>
       <c r="N26" s="13">
         <v>192</v>
       </c>
@@ -3757,7 +3774,7 @@
         <f>SUM(Table1[[#This Row],[Static]:[Column1]])</f>
         <v>0</v>
       </c>
-      <c r="L27" s="32"/>
+      <c r="L27" s="29"/>
       <c r="N27" s="13">
         <v>192</v>
       </c>
@@ -3805,7 +3822,7 @@
         <f>SUM(Table1[[#This Row],[Static]:[Column1]])</f>
         <v>0</v>
       </c>
-      <c r="L28" s="32"/>
+      <c r="L28" s="29"/>
       <c r="N28" s="13">
         <v>192</v>
       </c>
@@ -3853,7 +3870,7 @@
         <f>SUM(Table1[[#This Row],[Static]:[Column1]])</f>
         <v>0</v>
       </c>
-      <c r="L29" s="32"/>
+      <c r="L29" s="29"/>
       <c r="N29" s="13">
         <v>192</v>
       </c>
@@ -3901,7 +3918,7 @@
         <f>SUM(Table1[[#This Row],[Static]:[Column1]])</f>
         <v>0</v>
       </c>
-      <c r="L30" s="32"/>
+      <c r="L30" s="29"/>
       <c r="N30" s="13">
         <v>192</v>
       </c>
@@ -3949,7 +3966,7 @@
         <f>SUM(Table1[[#This Row],[Static]:[Column1]])</f>
         <v>0</v>
       </c>
-      <c r="L31" s="32"/>
+      <c r="L31" s="29"/>
       <c r="N31" s="13">
         <v>192</v>
       </c>
@@ -3997,7 +4014,7 @@
         <f>SUM(Table1[[#This Row],[Static]:[Column1]])</f>
         <v>0</v>
       </c>
-      <c r="L32" s="32"/>
+      <c r="L32" s="29"/>
       <c r="N32" s="13">
         <v>192</v>
       </c>
@@ -5165,10 +5182,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D90335B-B867-487F-AA6D-8B39B28AE44A}">
-  <dimension ref="A3:Z120"/>
+  <dimension ref="A2:Z120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q109" workbookViewId="0">
-      <selection activeCell="AA122" sqref="AA122"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -5181,80 +5198,106 @@
     <col min="11" max="11" width="13.7109375" style="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="20" width="9.140625" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="20" width="9.140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="22" max="22" width="10.7109375" customWidth="1"/>
     <col min="23" max="23" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="38" t="s">
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="25" t="s">
         <v>40</v>
       </c>
+      <c r="M3" s="15"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="K4" s="38" t="s">
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="26" t="s">
         <v>42</v>
       </c>
+      <c r="M4" s="18"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="K5" s="38" t="s">
+      <c r="F5" s="16"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="24">
+      <c r="L5" s="31">
         <f>508+508+508-L6</f>
         <v>1413</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="K6" s="38" t="s">
+      <c r="M5" s="18"/>
+    </row>
+    <row r="6" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="L6" s="24">
+      <c r="L6" s="28">
         <f>SUM(K10:K13)</f>
         <v>111</v>
       </c>
+      <c r="M6" s="21"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="L7" s="11"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="H8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F9" s="39" t="s">
+      <c r="F9" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="40" t="s">
+      <c r="H9" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="I9" s="40" t="s">
+      <c r="I9" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="J9" s="41" t="s">
+      <c r="J9" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="K9" s="42" t="s">
+      <c r="K9" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="L9" s="39" t="s">
+      <c r="L9" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="39" t="s">
+      <c r="M9" s="34" t="s">
         <v>67</v>
       </c>
       <c r="U9" s="1" t="s">
@@ -5295,15 +5338,15 @@
         <v>172.16.0.0</v>
       </c>
       <c r="G10" s="22">
-        <f t="shared" ref="G10:G41" si="1">COUNTIFS($S:$S,$C10,$Z:$Z,"static")</f>
+        <f t="shared" ref="G10:G12" si="1">COUNTIFS($S:$S,$C10,$Z:$Z,"static")</f>
         <v>1</v>
       </c>
       <c r="H10" s="22">
-        <f t="shared" ref="H10:I41" si="2">COUNTIFS($S:$S,$C10,$Z:$Z,"DHCP")</f>
+        <f t="shared" ref="H10:H12" si="2">COUNTIFS($S:$S,$C10,$Z:$Z,"DHCP")</f>
         <v>0</v>
       </c>
       <c r="I10" s="22">
-        <f t="shared" ref="I10:I41" si="3">COUNTIFS($S:$S,$C10,$Z:$Z,"reserve")</f>
+        <f t="shared" ref="I10:I12" si="3">COUNTIFS($S:$S,$C10,$Z:$Z,"reserve")</f>
         <v>0</v>
       </c>
       <c r="J10" s="12"/>
@@ -5311,7 +5354,7 @@
         <f>SUM(G10:J10)</f>
         <v>1</v>
       </c>
-      <c r="L10" s="32">
+      <c r="L10" s="29">
         <f>508-Table2[[#This Row],[Total]]</f>
         <v>507</v>
       </c>
@@ -5332,10 +5375,10 @@
         <v>172.16.0.254</v>
       </c>
       <c r="X10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
@@ -5373,7 +5416,7 @@
         <f>SUM(G11:J11)</f>
         <v>56</v>
       </c>
-      <c r="L11" s="32">
+      <c r="L11" s="29">
         <f>508-Table2[[#This Row],[Total]]</f>
         <v>452</v>
       </c>
@@ -5390,17 +5433,17 @@
         <v>254</v>
       </c>
       <c r="U11" t="str">
-        <f t="shared" ref="U11:U18" si="4">Q11&amp;"."&amp;R11&amp;"."&amp;S11&amp;"."&amp;T11</f>
+        <f t="shared" ref="U11:U12" si="4">Q11&amp;"."&amp;R11&amp;"."&amp;S11&amp;"."&amp;T11</f>
         <v>172.16.10.254</v>
       </c>
       <c r="X11" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y11" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="Y11" s="12" t="s">
-        <v>81</v>
-      </c>
       <c r="Z11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
@@ -5438,7 +5481,7 @@
         <f>SUM(G12:J12)</f>
         <v>54</v>
       </c>
-      <c r="L12" s="32">
+      <c r="L12" s="29">
         <f>508-Table2[[#This Row],[Total]]</f>
         <v>454</v>
       </c>
@@ -5459,13 +5502,13 @@
         <v>172.16.20.254</v>
       </c>
       <c r="X12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y12" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
@@ -5496,13 +5539,13 @@
         <v>172.16.10.253</v>
       </c>
       <c r="W13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X13" t="s">
         <v>54</v>
       </c>
       <c r="Z13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
@@ -5533,13 +5576,13 @@
         <v>172.16.20.253</v>
       </c>
       <c r="W14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X14" t="s">
         <v>54</v>
       </c>
       <c r="Z14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
@@ -5566,7 +5609,7 @@
         <v>5</v>
       </c>
       <c r="U15" t="str">
-        <f>Q15&amp;"."&amp;R15&amp;"."&amp;S15&amp;"."&amp;T15</f>
+        <f t="shared" ref="U15:U21" si="6">Q15&amp;"."&amp;R15&amp;"."&amp;S15&amp;"."&amp;T15</f>
         <v>172.16.10.5</v>
       </c>
       <c r="V15" s="12" t="s">
@@ -5576,7 +5619,7 @@
         <v>63</v>
       </c>
       <c r="X15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Z15" t="s">
         <v>59</v>
@@ -5606,7 +5649,7 @@
         <v>4</v>
       </c>
       <c r="U16" t="str">
-        <f>Q16&amp;"."&amp;R16&amp;"."&amp;S16&amp;"."&amp;T16</f>
+        <f t="shared" si="6"/>
         <v>172.16.10.4</v>
       </c>
       <c r="V16" s="12" t="s">
@@ -5616,7 +5659,7 @@
         <v>63</v>
       </c>
       <c r="X16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Z16" t="s">
         <v>59</v>
@@ -5646,7 +5689,7 @@
         <v>2</v>
       </c>
       <c r="U17" t="str">
-        <f>Q17&amp;"."&amp;R17&amp;"."&amp;S17&amp;"."&amp;T17</f>
+        <f t="shared" si="6"/>
         <v>172.16.10.2</v>
       </c>
       <c r="V17" s="12" t="s">
@@ -5656,7 +5699,7 @@
         <v>63</v>
       </c>
       <c r="X17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Z17" t="s">
         <v>59</v>
@@ -5685,7 +5728,7 @@
         <v>6</v>
       </c>
       <c r="U18" t="str">
-        <f>Q18&amp;"."&amp;R18&amp;"."&amp;S18&amp;"."&amp;T18</f>
+        <f t="shared" si="6"/>
         <v>172.16.10.6</v>
       </c>
       <c r="V18" s="12" t="s">
@@ -5695,7 +5738,7 @@
         <v>63</v>
       </c>
       <c r="X18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z18" t="s">
         <v>59</v>
@@ -5724,7 +5767,7 @@
         <v>2</v>
       </c>
       <c r="U19" t="str">
-        <f>Q19&amp;"."&amp;R19&amp;"."&amp;S19&amp;"."&amp;T19</f>
+        <f t="shared" si="6"/>
         <v>172.16.20.2</v>
       </c>
       <c r="V19" s="12" t="s">
@@ -5763,7 +5806,7 @@
         <v>1</v>
       </c>
       <c r="U20" t="str">
-        <f>Q20&amp;"."&amp;R20&amp;"."&amp;S20&amp;"."&amp;T20</f>
+        <f t="shared" si="6"/>
         <v>172.16.20.1</v>
       </c>
       <c r="V20" s="12" t="s">
@@ -5773,7 +5816,7 @@
         <v>64</v>
       </c>
       <c r="X20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Z20" t="s">
         <v>59</v>
@@ -5802,11 +5845,11 @@
         <v>51</v>
       </c>
       <c r="U21" t="str">
-        <f>Q21&amp;"."&amp;R21&amp;"."&amp;S21&amp;"."&amp;T21</f>
+        <f t="shared" si="6"/>
         <v>172.16.10.51</v>
       </c>
       <c r="Z21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
@@ -5832,11 +5875,11 @@
         <v>52</v>
       </c>
       <c r="U22" t="str">
-        <f t="shared" ref="U22:U70" si="6">Q22&amp;"."&amp;R22&amp;"."&amp;S22&amp;"."&amp;T22</f>
+        <f t="shared" ref="U22:U70" si="7">Q22&amp;"."&amp;R22&amp;"."&amp;S22&amp;"."&amp;T22</f>
         <v>172.16.10.52</v>
       </c>
       <c r="Z22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
@@ -5862,11 +5905,11 @@
         <v>53</v>
       </c>
       <c r="U23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>172.16.10.53</v>
       </c>
       <c r="Z23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
@@ -5892,11 +5935,11 @@
         <v>54</v>
       </c>
       <c r="U24" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>172.16.10.54</v>
       </c>
       <c r="Z24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
@@ -5922,11 +5965,11 @@
         <v>55</v>
       </c>
       <c r="U25" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>172.16.10.55</v>
       </c>
       <c r="Z25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
@@ -5952,11 +5995,11 @@
         <v>56</v>
       </c>
       <c r="U26" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>172.16.10.56</v>
       </c>
       <c r="Z26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
@@ -5982,11 +6025,11 @@
         <v>57</v>
       </c>
       <c r="U27" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>172.16.10.57</v>
       </c>
       <c r="Z27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
@@ -6012,11 +6055,11 @@
         <v>58</v>
       </c>
       <c r="U28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>172.16.10.58</v>
       </c>
       <c r="Z28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
@@ -6042,11 +6085,11 @@
         <v>59</v>
       </c>
       <c r="U29" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>172.16.10.59</v>
       </c>
       <c r="Z29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
@@ -6072,11 +6115,11 @@
         <v>60</v>
       </c>
       <c r="U30" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>172.16.10.60</v>
       </c>
       <c r="Z30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
@@ -6102,11 +6145,11 @@
         <v>61</v>
       </c>
       <c r="U31" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>172.16.10.61</v>
       </c>
       <c r="Z31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
@@ -6132,11 +6175,11 @@
         <v>62</v>
       </c>
       <c r="U32" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>172.16.10.62</v>
       </c>
       <c r="Z32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
@@ -6162,11 +6205,11 @@
         <v>63</v>
       </c>
       <c r="U33" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>172.16.10.63</v>
       </c>
       <c r="Z33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
@@ -6192,11 +6235,11 @@
         <v>64</v>
       </c>
       <c r="U34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>172.16.10.64</v>
       </c>
       <c r="Z34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
@@ -6222,11 +6265,11 @@
         <v>65</v>
       </c>
       <c r="U35" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>172.16.10.65</v>
       </c>
       <c r="Z35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
@@ -6252,11 +6295,11 @@
         <v>66</v>
       </c>
       <c r="U36" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>172.16.10.66</v>
       </c>
       <c r="Z36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
@@ -6282,11 +6325,11 @@
         <v>67</v>
       </c>
       <c r="U37" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>172.16.10.67</v>
       </c>
       <c r="Z37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
@@ -6312,11 +6355,11 @@
         <v>68</v>
       </c>
       <c r="U38" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>172.16.10.68</v>
       </c>
       <c r="Z38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
@@ -6342,11 +6385,11 @@
         <v>69</v>
       </c>
       <c r="U39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>172.16.10.69</v>
       </c>
       <c r="Z39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
@@ -6372,11 +6415,11 @@
         <v>70</v>
       </c>
       <c r="U40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>172.16.10.70</v>
       </c>
       <c r="Z40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
@@ -6402,11 +6445,11 @@
         <v>71</v>
       </c>
       <c r="U41" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>172.16.10.71</v>
       </c>
       <c r="Z41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
@@ -6432,11 +6475,11 @@
         <v>72</v>
       </c>
       <c r="U42" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>172.16.10.72</v>
       </c>
       <c r="Z42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
@@ -6446,19 +6489,19 @@
       <c r="D43" s="18"/>
       <c r="E43" s="17"/>
       <c r="G43" s="23">
-        <f t="shared" ref="G42:G74" si="7">COUNTIFS($S:$S,$C43,$Z:$Z,"static")</f>
+        <f t="shared" ref="G43:G74" si="8">COUNTIFS($S:$S,$C43,$Z:$Z,"static")</f>
         <v>1</v>
       </c>
       <c r="H43" s="23">
-        <f t="shared" ref="H42:H74" si="8">COUNTIFS($S:$S,$C43,$Z:$Z,"DHCP")</f>
+        <f t="shared" ref="H43:H74" si="9">COUNTIFS($S:$S,$C43,$Z:$Z,"DHCP")</f>
         <v>0</v>
       </c>
       <c r="I43" s="22">
-        <f t="shared" ref="I42:I74" si="9">COUNTIFS($S:$S,$C43,$Z:$Z,"reserve")</f>
+        <f t="shared" ref="I43:I74" si="10">COUNTIFS($S:$S,$C43,$Z:$Z,"reserve")</f>
         <v>0</v>
       </c>
       <c r="J43" s="22">
-        <f>COUNTIFS($S:$S,$C42+1+1+1,$T:$T,"&lt;255")</f>
+        <f t="shared" ref="J43:J74" si="11">COUNTIFS($S:$S,$C42+1+1+1,$T:$T,"&lt;255")</f>
         <v>0</v>
       </c>
       <c r="Q43">
@@ -6474,11 +6517,11 @@
         <v>73</v>
       </c>
       <c r="U43" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>172.16.10.73</v>
       </c>
       <c r="Z43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
@@ -6488,19 +6531,19 @@
       <c r="D44" s="18"/>
       <c r="E44" s="17"/>
       <c r="G44" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H44" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I44" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J44" s="22">
-        <f>COUNTIFS($S:$S,$C43+1+1+1,$T:$T,"&lt;255")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q44">
@@ -6516,11 +6559,11 @@
         <v>74</v>
       </c>
       <c r="U44" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>172.16.10.74</v>
       </c>
       <c r="Z44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
@@ -6530,19 +6573,19 @@
       <c r="D45" s="18"/>
       <c r="E45" s="17"/>
       <c r="G45" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H45" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I45" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J45" s="22">
-        <f>COUNTIFS($S:$S,$C44+1+1+1,$T:$T,"&lt;255")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q45">
@@ -6558,11 +6601,11 @@
         <v>75</v>
       </c>
       <c r="U45" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>172.16.10.75</v>
       </c>
       <c r="Z45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.25">
@@ -6572,19 +6615,19 @@
       <c r="D46" s="18"/>
       <c r="E46" s="17"/>
       <c r="G46" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H46" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I46" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J46" s="22">
-        <f>COUNTIFS($S:$S,$C45+1+1+1,$T:$T,"&lt;255")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q46">
@@ -6600,11 +6643,11 @@
         <v>76</v>
       </c>
       <c r="U46" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>172.16.10.76</v>
       </c>
       <c r="Z46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
@@ -6614,19 +6657,19 @@
       <c r="D47" s="18"/>
       <c r="E47" s="17"/>
       <c r="G47" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H47" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I47" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J47" s="22">
-        <f>COUNTIFS($S:$S,$C46+1+1+1,$T:$T,"&lt;255")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q47">
@@ -6642,11 +6685,11 @@
         <v>77</v>
       </c>
       <c r="U47" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>172.16.10.77</v>
       </c>
       <c r="Z47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
@@ -6656,19 +6699,19 @@
       <c r="D48" s="18"/>
       <c r="E48" s="17"/>
       <c r="G48" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H48" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I48" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J48" s="22">
-        <f>COUNTIFS($S:$S,$C47+1+1+1,$T:$T,"&lt;255")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q48">
@@ -6684,11 +6727,11 @@
         <v>78</v>
       </c>
       <c r="U48" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>172.16.10.78</v>
       </c>
       <c r="Z48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.25">
@@ -6698,19 +6741,19 @@
       <c r="D49" s="18"/>
       <c r="E49" s="17"/>
       <c r="G49" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H49" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I49" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J49" s="22">
-        <f>COUNTIFS($S:$S,$C48+1+1+1,$T:$T,"&lt;255")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q49">
@@ -6726,11 +6769,11 @@
         <v>79</v>
       </c>
       <c r="U49" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>172.16.10.79</v>
       </c>
       <c r="Z49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.25">
@@ -6740,19 +6783,19 @@
       <c r="D50" s="18"/>
       <c r="E50" s="17"/>
       <c r="G50" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H50" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I50" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J50" s="22">
-        <f>COUNTIFS($S:$S,$C49+1+1+1,$T:$T,"&lt;255")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q50">
@@ -6768,11 +6811,11 @@
         <v>80</v>
       </c>
       <c r="U50" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>172.16.10.80</v>
       </c>
       <c r="Z50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.25">
@@ -6782,19 +6825,19 @@
       <c r="D51" s="18"/>
       <c r="E51" s="17"/>
       <c r="G51" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H51" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I51" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J51" s="22">
-        <f>COUNTIFS($S:$S,$C50+1+1+1,$T:$T,"&lt;255")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q51">
@@ -6810,11 +6853,11 @@
         <v>81</v>
       </c>
       <c r="U51" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>172.16.10.81</v>
       </c>
       <c r="Z51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.25">
@@ -6824,19 +6867,19 @@
       <c r="D52" s="18"/>
       <c r="E52" s="17"/>
       <c r="G52" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H52" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I52" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J52" s="22">
-        <f>COUNTIFS($S:$S,$C51+1+1+1,$T:$T,"&lt;255")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q52">
@@ -6852,11 +6895,11 @@
         <v>82</v>
       </c>
       <c r="U52" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>172.16.10.82</v>
       </c>
       <c r="Z52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
@@ -6866,19 +6909,19 @@
       <c r="D53" s="18"/>
       <c r="E53" s="17"/>
       <c r="G53" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H53" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I53" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J53" s="22">
-        <f>COUNTIFS($S:$S,$C52+1+1+1,$T:$T,"&lt;255")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q53">
@@ -6894,11 +6937,11 @@
         <v>83</v>
       </c>
       <c r="U53" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>172.16.10.83</v>
       </c>
       <c r="Z53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
@@ -6908,19 +6951,19 @@
       <c r="D54" s="18"/>
       <c r="E54" s="17"/>
       <c r="G54" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H54" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I54" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J54" s="22">
-        <f>COUNTIFS($S:$S,$C53+1+1+1,$T:$T,"&lt;255")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q54">
@@ -6936,11 +6979,11 @@
         <v>84</v>
       </c>
       <c r="U54" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>172.16.10.84</v>
       </c>
       <c r="Z54" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
@@ -6950,19 +6993,19 @@
       <c r="D55" s="18"/>
       <c r="E55" s="17"/>
       <c r="G55" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H55" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I55" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J55" s="22">
-        <f>COUNTIFS($S:$S,$C54+1+1+1,$T:$T,"&lt;255")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q55">
@@ -6978,11 +7021,11 @@
         <v>85</v>
       </c>
       <c r="U55" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>172.16.10.85</v>
       </c>
       <c r="Z55" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
@@ -6992,19 +7035,19 @@
       <c r="D56" s="18"/>
       <c r="E56" s="17"/>
       <c r="G56" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H56" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I56" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J56" s="22">
-        <f>COUNTIFS($S:$S,$C55+1+1+1,$T:$T,"&lt;255")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q56">
@@ -7020,11 +7063,11 @@
         <v>86</v>
       </c>
       <c r="U56" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>172.16.10.86</v>
       </c>
       <c r="Z56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.25">
@@ -7034,19 +7077,19 @@
       <c r="D57" s="18"/>
       <c r="E57" s="17"/>
       <c r="G57" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H57" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I57" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J57" s="22">
-        <f>COUNTIFS($S:$S,$C56+1+1+1,$T:$T,"&lt;255")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q57">
@@ -7062,11 +7105,11 @@
         <v>87</v>
       </c>
       <c r="U57" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>172.16.10.87</v>
       </c>
       <c r="Z57" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.25">
@@ -7076,19 +7119,19 @@
       <c r="D58" s="18"/>
       <c r="E58" s="17"/>
       <c r="G58" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H58" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I58" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J58" s="22">
-        <f>COUNTIFS($S:$S,$C57+1+1+1,$T:$T,"&lt;255")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q58">
@@ -7104,11 +7147,11 @@
         <v>88</v>
       </c>
       <c r="U58" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>172.16.10.88</v>
       </c>
       <c r="Z58" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.25">
@@ -7118,19 +7161,19 @@
       <c r="D59" s="18"/>
       <c r="E59" s="17"/>
       <c r="G59" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H59" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I59" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J59" s="22">
-        <f>COUNTIFS($S:$S,$C58+1+1+1,$T:$T,"&lt;255")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q59">
@@ -7146,11 +7189,11 @@
         <v>89</v>
       </c>
       <c r="U59" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>172.16.10.89</v>
       </c>
       <c r="Z59" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.25">
@@ -7160,19 +7203,19 @@
       <c r="D60" s="18"/>
       <c r="E60" s="17"/>
       <c r="G60" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H60" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I60" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J60" s="22">
-        <f>COUNTIFS($S:$S,$C59+1+1+1,$T:$T,"&lt;255")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q60">
@@ -7188,11 +7231,11 @@
         <v>90</v>
       </c>
       <c r="U60" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>172.16.10.90</v>
       </c>
       <c r="Z60" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.25">
@@ -7202,19 +7245,19 @@
       <c r="D61" s="18"/>
       <c r="E61" s="17"/>
       <c r="G61" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H61" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I61" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J61" s="22">
-        <f>COUNTIFS($S:$S,$C60+1+1+1,$T:$T,"&lt;255")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q61">
@@ -7230,11 +7273,11 @@
         <v>91</v>
       </c>
       <c r="U61" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>172.16.10.91</v>
       </c>
       <c r="Z61" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.25">
@@ -7244,19 +7287,19 @@
       <c r="D62" s="18"/>
       <c r="E62" s="17"/>
       <c r="G62" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H62" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I62" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J62" s="22">
-        <f>COUNTIFS($S:$S,$C61+1+1+1,$T:$T,"&lt;255")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q62">
@@ -7272,11 +7315,11 @@
         <v>92</v>
       </c>
       <c r="U62" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>172.16.10.92</v>
       </c>
       <c r="Z62" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.25">
@@ -7286,19 +7329,19 @@
       <c r="D63" s="18"/>
       <c r="E63" s="17"/>
       <c r="G63" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H63" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I63" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J63" s="22">
-        <f>COUNTIFS($S:$S,$C62+1+1+1,$T:$T,"&lt;255")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q63">
@@ -7314,11 +7357,11 @@
         <v>93</v>
       </c>
       <c r="U63" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>172.16.10.93</v>
       </c>
       <c r="Z63" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.25">
@@ -7328,19 +7371,19 @@
       <c r="D64" s="18"/>
       <c r="E64" s="17"/>
       <c r="G64" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H64" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I64" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J64" s="22">
-        <f>COUNTIFS($S:$S,$C63+1+1+1,$T:$T,"&lt;255")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q64">
@@ -7356,11 +7399,11 @@
         <v>94</v>
       </c>
       <c r="U64" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>172.16.10.94</v>
       </c>
       <c r="Z64" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
@@ -7370,19 +7413,19 @@
       <c r="D65" s="18"/>
       <c r="E65" s="17"/>
       <c r="G65" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H65" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I65" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J65" s="22">
-        <f>COUNTIFS($S:$S,$C64+1+1+1,$T:$T,"&lt;255")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q65">
@@ -7398,11 +7441,11 @@
         <v>95</v>
       </c>
       <c r="U65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>172.16.10.95</v>
       </c>
       <c r="Z65" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
@@ -7412,19 +7455,19 @@
       <c r="D66" s="18"/>
       <c r="E66" s="17"/>
       <c r="G66" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H66" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I66" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J66" s="22">
-        <f>COUNTIFS($S:$S,$C65+1+1+1,$T:$T,"&lt;255")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q66">
@@ -7440,11 +7483,11 @@
         <v>96</v>
       </c>
       <c r="U66" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>172.16.10.96</v>
       </c>
       <c r="Z66" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.25">
@@ -7454,19 +7497,19 @@
       <c r="D67" s="18"/>
       <c r="E67" s="17"/>
       <c r="G67" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H67" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I67" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J67" s="22">
-        <f>COUNTIFS($S:$S,$C66+1+1+1,$T:$T,"&lt;255")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q67">
@@ -7483,11 +7526,11 @@
         <v>97</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>172.16.10.97</v>
       </c>
       <c r="Z67" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.25">
@@ -7497,19 +7540,19 @@
       <c r="D68" s="18"/>
       <c r="E68" s="17"/>
       <c r="G68" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H68" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I68" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J68" s="22">
-        <f>COUNTIFS($S:$S,$C67+1+1+1,$T:$T,"&lt;255")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q68">
@@ -7522,15 +7565,15 @@
         <v>10</v>
       </c>
       <c r="T68">
-        <f t="shared" ref="T68:T70" si="10">T67+1</f>
+        <f t="shared" ref="T68:T70" si="12">T67+1</f>
         <v>98</v>
       </c>
       <c r="U68" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>172.16.10.98</v>
       </c>
       <c r="Z68" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
@@ -7540,19 +7583,19 @@
       <c r="D69" s="18"/>
       <c r="E69" s="17"/>
       <c r="G69" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H69" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I69" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J69" s="22">
-        <f>COUNTIFS($S:$S,$C68+1+1+1,$T:$T,"&lt;255")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q69">
@@ -7565,15 +7608,15 @@
         <v>10</v>
       </c>
       <c r="T69">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>99</v>
       </c>
       <c r="U69" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>172.16.10.99</v>
       </c>
       <c r="Z69" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
@@ -7583,19 +7626,19 @@
       <c r="D70" s="18"/>
       <c r="E70" s="17"/>
       <c r="G70" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H70" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I70" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J70" s="22">
-        <f>COUNTIFS($S:$S,$C69+1+1+1,$T:$T,"&lt;255")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q70">
@@ -7608,15 +7651,15 @@
         <v>10</v>
       </c>
       <c r="T70">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="U70" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>172.16.10.100</v>
       </c>
       <c r="Z70" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
@@ -7626,19 +7669,19 @@
       <c r="D71" s="18"/>
       <c r="E71" s="17"/>
       <c r="G71" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H71" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I71" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J71" s="22">
-        <f>COUNTIFS($S:$S,$C70+1+1+1,$T:$T,"&lt;255")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q71">
@@ -7658,7 +7701,7 @@
         <v>172.16.20.51</v>
       </c>
       <c r="Z71" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
@@ -7668,19 +7711,19 @@
       <c r="D72" s="18"/>
       <c r="E72" s="17"/>
       <c r="G72" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H72" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I72" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J72" s="22">
-        <f>COUNTIFS($S:$S,$C71+1+1+1,$T:$T,"&lt;255")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q72">
@@ -7696,11 +7739,11 @@
         <v>52</v>
       </c>
       <c r="U72" t="str">
-        <f t="shared" ref="U72:U120" si="11">Q72&amp;"."&amp;R72&amp;"."&amp;S72&amp;"."&amp;T72</f>
+        <f t="shared" ref="U72:U120" si="13">Q72&amp;"."&amp;R72&amp;"."&amp;S72&amp;"."&amp;T72</f>
         <v>172.16.20.52</v>
       </c>
       <c r="Z72" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7710,19 +7753,19 @@
       <c r="D73" s="21"/>
       <c r="E73" s="17"/>
       <c r="G73" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H73" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I73" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J73" s="22">
-        <f>COUNTIFS($S:$S,$C72+1+1+1,$T:$T,"&lt;255")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q73">
@@ -7738,28 +7781,28 @@
         <v>53</v>
       </c>
       <c r="U73" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>172.16.20.53</v>
       </c>
       <c r="Z73" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="G74" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H74" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I74" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J74" s="22">
-        <f>COUNTIFS($S:$S,$C73+1+1+1,$T:$T,"&lt;255")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q74">
@@ -7775,11 +7818,11 @@
         <v>54</v>
       </c>
       <c r="U74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>172.16.20.54</v>
       </c>
       <c r="Z74" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.25">
@@ -7796,11 +7839,11 @@
         <v>55</v>
       </c>
       <c r="U75" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>172.16.20.55</v>
       </c>
       <c r="Z75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.25">
@@ -7817,11 +7860,11 @@
         <v>56</v>
       </c>
       <c r="U76" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>172.16.20.56</v>
       </c>
       <c r="Z76" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.25">
@@ -7838,11 +7881,11 @@
         <v>57</v>
       </c>
       <c r="U77" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>172.16.20.57</v>
       </c>
       <c r="Z77" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.25">
@@ -7859,11 +7902,11 @@
         <v>58</v>
       </c>
       <c r="U78" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>172.16.20.58</v>
       </c>
       <c r="Z78" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.25">
@@ -7880,11 +7923,11 @@
         <v>59</v>
       </c>
       <c r="U79" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>172.16.20.59</v>
       </c>
       <c r="Z79" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.25">
@@ -7901,11 +7944,11 @@
         <v>60</v>
       </c>
       <c r="U80" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>172.16.20.60</v>
       </c>
       <c r="Z80" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="81" spans="17:26" x14ac:dyDescent="0.25">
@@ -7922,11 +7965,11 @@
         <v>61</v>
       </c>
       <c r="U81" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>172.16.20.61</v>
       </c>
       <c r="Z81" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="82" spans="17:26" x14ac:dyDescent="0.25">
@@ -7943,11 +7986,11 @@
         <v>62</v>
       </c>
       <c r="U82" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>172.16.20.62</v>
       </c>
       <c r="Z82" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="83" spans="17:26" x14ac:dyDescent="0.25">
@@ -7964,11 +8007,11 @@
         <v>63</v>
       </c>
       <c r="U83" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>172.16.20.63</v>
       </c>
       <c r="Z83" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="84" spans="17:26" x14ac:dyDescent="0.25">
@@ -7985,11 +8028,11 @@
         <v>64</v>
       </c>
       <c r="U84" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>172.16.20.64</v>
       </c>
       <c r="Z84" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="85" spans="17:26" x14ac:dyDescent="0.25">
@@ -8006,11 +8049,11 @@
         <v>65</v>
       </c>
       <c r="U85" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>172.16.20.65</v>
       </c>
       <c r="Z85" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="86" spans="17:26" x14ac:dyDescent="0.25">
@@ -8027,11 +8070,11 @@
         <v>66</v>
       </c>
       <c r="U86" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>172.16.20.66</v>
       </c>
       <c r="Z86" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="87" spans="17:26" x14ac:dyDescent="0.25">
@@ -8048,11 +8091,11 @@
         <v>67</v>
       </c>
       <c r="U87" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>172.16.20.67</v>
       </c>
       <c r="Z87" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="88" spans="17:26" x14ac:dyDescent="0.25">
@@ -8069,11 +8112,11 @@
         <v>68</v>
       </c>
       <c r="U88" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>172.16.20.68</v>
       </c>
       <c r="Z88" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89" spans="17:26" x14ac:dyDescent="0.25">
@@ -8090,11 +8133,11 @@
         <v>69</v>
       </c>
       <c r="U89" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>172.16.20.69</v>
       </c>
       <c r="Z89" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="90" spans="17:26" x14ac:dyDescent="0.25">
@@ -8111,11 +8154,11 @@
         <v>70</v>
       </c>
       <c r="U90" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>172.16.20.70</v>
       </c>
       <c r="Z90" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="17:26" x14ac:dyDescent="0.25">
@@ -8132,11 +8175,11 @@
         <v>71</v>
       </c>
       <c r="U91" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>172.16.20.71</v>
       </c>
       <c r="Z91" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="92" spans="17:26" x14ac:dyDescent="0.25">
@@ -8153,11 +8196,11 @@
         <v>72</v>
       </c>
       <c r="U92" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>172.16.20.72</v>
       </c>
       <c r="Z92" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="93" spans="17:26" x14ac:dyDescent="0.25">
@@ -8174,11 +8217,11 @@
         <v>73</v>
       </c>
       <c r="U93" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>172.16.20.73</v>
       </c>
       <c r="Z93" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="94" spans="17:26" x14ac:dyDescent="0.25">
@@ -8195,11 +8238,11 @@
         <v>74</v>
       </c>
       <c r="U94" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>172.16.20.74</v>
       </c>
       <c r="Z94" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="95" spans="17:26" x14ac:dyDescent="0.25">
@@ -8216,11 +8259,11 @@
         <v>75</v>
       </c>
       <c r="U95" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>172.16.20.75</v>
       </c>
       <c r="Z95" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="96" spans="17:26" x14ac:dyDescent="0.25">
@@ -8237,11 +8280,11 @@
         <v>76</v>
       </c>
       <c r="U96" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>172.16.20.76</v>
       </c>
       <c r="Z96" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="97" spans="17:26" x14ac:dyDescent="0.25">
@@ -8258,11 +8301,11 @@
         <v>77</v>
       </c>
       <c r="U97" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>172.16.20.77</v>
       </c>
       <c r="Z97" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="98" spans="17:26" x14ac:dyDescent="0.25">
@@ -8279,11 +8322,11 @@
         <v>78</v>
       </c>
       <c r="U98" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>172.16.20.78</v>
       </c>
       <c r="Z98" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="99" spans="17:26" x14ac:dyDescent="0.25">
@@ -8300,11 +8343,11 @@
         <v>79</v>
       </c>
       <c r="U99" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>172.16.20.79</v>
       </c>
       <c r="Z99" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="100" spans="17:26" x14ac:dyDescent="0.25">
@@ -8321,11 +8364,11 @@
         <v>80</v>
       </c>
       <c r="U100" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>172.16.20.80</v>
       </c>
       <c r="Z100" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="101" spans="17:26" x14ac:dyDescent="0.25">
@@ -8342,11 +8385,11 @@
         <v>81</v>
       </c>
       <c r="U101" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>172.16.20.81</v>
       </c>
       <c r="Z101" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="102" spans="17:26" x14ac:dyDescent="0.25">
@@ -8363,11 +8406,11 @@
         <v>82</v>
       </c>
       <c r="U102" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>172.16.20.82</v>
       </c>
       <c r="Z102" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="103" spans="17:26" x14ac:dyDescent="0.25">
@@ -8384,11 +8427,11 @@
         <v>83</v>
       </c>
       <c r="U103" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>172.16.20.83</v>
       </c>
       <c r="Z103" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="104" spans="17:26" x14ac:dyDescent="0.25">
@@ -8405,11 +8448,11 @@
         <v>84</v>
       </c>
       <c r="U104" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>172.16.20.84</v>
       </c>
       <c r="Z104" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="105" spans="17:26" x14ac:dyDescent="0.25">
@@ -8426,11 +8469,11 @@
         <v>85</v>
       </c>
       <c r="U105" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>172.16.20.85</v>
       </c>
       <c r="Z105" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="106" spans="17:26" x14ac:dyDescent="0.25">
@@ -8447,11 +8490,11 @@
         <v>86</v>
       </c>
       <c r="U106" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>172.16.20.86</v>
       </c>
       <c r="Z106" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="107" spans="17:26" x14ac:dyDescent="0.25">
@@ -8468,11 +8511,11 @@
         <v>87</v>
       </c>
       <c r="U107" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>172.16.20.87</v>
       </c>
       <c r="Z107" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="108" spans="17:26" x14ac:dyDescent="0.25">
@@ -8489,11 +8532,11 @@
         <v>88</v>
       </c>
       <c r="U108" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>172.16.20.88</v>
       </c>
       <c r="Z108" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="109" spans="17:26" x14ac:dyDescent="0.25">
@@ -8510,11 +8553,11 @@
         <v>89</v>
       </c>
       <c r="U109" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>172.16.20.89</v>
       </c>
       <c r="Z109" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="110" spans="17:26" x14ac:dyDescent="0.25">
@@ -8531,11 +8574,11 @@
         <v>90</v>
       </c>
       <c r="U110" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>172.16.20.90</v>
       </c>
       <c r="Z110" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="111" spans="17:26" x14ac:dyDescent="0.25">
@@ -8552,11 +8595,11 @@
         <v>91</v>
       </c>
       <c r="U111" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>172.16.20.91</v>
       </c>
       <c r="Z111" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="112" spans="17:26" x14ac:dyDescent="0.25">
@@ -8573,11 +8616,11 @@
         <v>92</v>
       </c>
       <c r="U112" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>172.16.20.92</v>
       </c>
       <c r="Z112" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="113" spans="17:26" x14ac:dyDescent="0.25">
@@ -8594,11 +8637,11 @@
         <v>93</v>
       </c>
       <c r="U113" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>172.16.20.93</v>
       </c>
       <c r="Z113" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="114" spans="17:26" x14ac:dyDescent="0.25">
@@ -8615,11 +8658,11 @@
         <v>94</v>
       </c>
       <c r="U114" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>172.16.20.94</v>
       </c>
       <c r="Z114" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="115" spans="17:26" x14ac:dyDescent="0.25">
@@ -8636,11 +8679,11 @@
         <v>95</v>
       </c>
       <c r="U115" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>172.16.20.95</v>
       </c>
       <c r="Z115" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="116" spans="17:26" x14ac:dyDescent="0.25">
@@ -8657,11 +8700,11 @@
         <v>96</v>
       </c>
       <c r="U116" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>172.16.20.96</v>
       </c>
       <c r="Z116" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="117" spans="17:26" x14ac:dyDescent="0.25">
@@ -8679,11 +8722,11 @@
         <v>97</v>
       </c>
       <c r="U117" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>172.16.20.97</v>
       </c>
       <c r="Z117" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="118" spans="17:26" x14ac:dyDescent="0.25">
@@ -8697,15 +8740,15 @@
         <v>20</v>
       </c>
       <c r="T118">
-        <f t="shared" ref="T118:T120" si="12">T117+1</f>
+        <f t="shared" ref="T118:T120" si="14">T117+1</f>
         <v>98</v>
       </c>
       <c r="U118" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>172.16.20.98</v>
       </c>
       <c r="Z118" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="119" spans="17:26" x14ac:dyDescent="0.25">
@@ -8719,15 +8762,15 @@
         <v>20</v>
       </c>
       <c r="T119">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>99</v>
       </c>
       <c r="U119" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>172.16.20.99</v>
       </c>
       <c r="Z119" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="120" spans="17:26" x14ac:dyDescent="0.25">
@@ -8741,23 +8784,24 @@
         <v>20</v>
       </c>
       <c r="T120">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="U120" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>172.16.20.100</v>
       </c>
       <c r="Z120" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/NET_DOC/21JUL/New Microsoft Excel Worksheet.xlsx
+++ b/NET_DOC/21JUL/New Microsoft Excel Worksheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\green\Desktop\Github\Daily\Network Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GW\Desktop\Github\Daily\NET_DOC\21JUL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFBF6C2-36D4-408E-9209-C37ABE62ED07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FE2624-2D3C-43D0-BE7C-3F0BEC8F54FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,9 @@
     <sheet name="192.16" sheetId="11" r:id="rId6"/>
     <sheet name="172.16" sheetId="10" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'172.16'!$A$1:$AB$115</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId8"/>
@@ -65,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="98">
   <si>
     <t>RUN A WEBSITE COST</t>
   </si>
@@ -268,12 +271,6 @@
     <t>Column1</t>
   </si>
   <si>
-    <t>Column8</t>
-  </si>
-  <si>
-    <t>Networking</t>
-  </si>
-  <si>
     <t>Reserved</t>
   </si>
   <si>
@@ -335,6 +332,36 @@
   </si>
   <si>
     <t>reserve</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>three</t>
+  </si>
+  <si>
+    <t>four</t>
+  </si>
+  <si>
+    <t>ONE</t>
+  </si>
+  <si>
+    <t>TWO</t>
+  </si>
+  <si>
+    <t>FOUR</t>
+  </si>
+  <si>
+    <t>THREE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
   </si>
 </sst>
 </file>
@@ -345,7 +372,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,6 +411,19 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="4" tint="-0.249977111117893"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -526,7 +566,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -585,20 +625,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -619,12 +647,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="20">
     <dxf>
       <font>
         <b/>
@@ -636,13 +679,68 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="16"/>
+        <sz val="11"/>
         <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -830,6 +928,25 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1033,55 +1150,99 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{23A29AF7-2FB6-40EA-9868-370CCDCE25F0}" name="Table1" displayName="Table1" ref="F9:L32" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{23A29AF7-2FB6-40EA-9868-370CCDCE25F0}" name="Table1" displayName="Table1" ref="F9:L32" totalsRowShown="0" headerRowDxfId="19">
   <autoFilter ref="F9:L32" xr:uid="{23A29AF7-2FB6-40EA-9868-370CCDCE25F0}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{2BB7E5B1-E611-4BEC-AACF-1B08351D108A}" name="Network" dataDxfId="14">
+    <tableColumn id="1" xr3:uid="{2BB7E5B1-E611-4BEC-AACF-1B08351D108A}" name="Network" dataDxfId="18">
       <calculatedColumnFormula>A10&amp;"."&amp;B10&amp;"."&amp;C10&amp;"."&amp;D10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A3CF4762-4B63-4EA3-9E5F-803CAD598AAF}" name="Static" dataDxfId="13" dataCellStyle="Comma">
+    <tableColumn id="2" xr3:uid="{A3CF4762-4B63-4EA3-9E5F-803CAD598AAF}" name="Static" dataDxfId="17" dataCellStyle="Comma">
       <calculatedColumnFormula>COUNTIFS($P:$P,$C10,$W:$W,"static")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{49704FEF-85F5-4146-9740-878CAB9CCFBD}" name="DHCP" dataDxfId="12" dataCellStyle="Comma">
+    <tableColumn id="3" xr3:uid="{49704FEF-85F5-4146-9740-878CAB9CCFBD}" name="DHCP" dataDxfId="16" dataCellStyle="Comma">
       <calculatedColumnFormula>COUNTIFS($P:$P,$C10,$W:$W,"DHCP")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F585B433-DEBE-4EEE-9FFA-6360331C526D}" name="Reserved" dataDxfId="11" dataCellStyle="Comma">
+    <tableColumn id="4" xr3:uid="{F585B433-DEBE-4EEE-9FFA-6360331C526D}" name="Reserved" dataDxfId="15" dataCellStyle="Comma">
       <calculatedColumnFormula>COUNTIFS($P:$P,$C10,$W:$W,"reserve")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{ECC6306B-3832-4BFD-9C9A-D93B112BE33C}" name="Column1" dataDxfId="10" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{C2EC32B1-3597-4B9B-8151-D9C17D59A72C}" name="Total" dataDxfId="9">
+    <tableColumn id="5" xr3:uid="{ECC6306B-3832-4BFD-9C9A-D93B112BE33C}" name="Column1" dataDxfId="14" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{C2EC32B1-3597-4B9B-8151-D9C17D59A72C}" name="Total" dataDxfId="13">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[Static]:[Column1]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{9E87E47B-AB50-4459-AD77-7364C2F4AB5F}" name="In total usage address:" dataDxfId="8">
+    <tableColumn id="7" xr3:uid="{9E87E47B-AB50-4459-AD77-7364C2F4AB5F}" name="In total usage address:" dataDxfId="12">
       <calculatedColumnFormula>254-Table1[[#This Row],[Total]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A3AE0FB5-02C4-4472-B525-95B317F7C619}" name="Table2" displayName="Table2" ref="F9:M74" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{27C7C9D6-278F-4724-8E91-AC723BBC598F}" name="Table4" displayName="Table4" ref="N3:W62" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="N3:W62" xr:uid="{27C7C9D6-278F-4724-8E91-AC723BBC598F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N4:W62">
+    <sortCondition ref="P4:P62"/>
+    <sortCondition ref="Q4:Q62"/>
+  </sortState>
+  <tableColumns count="10">
+    <tableColumn id="7" xr3:uid="{2E5CEFC9-913E-48E9-BD31-6D9FAA4D8322}" name="one" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{9063CA7F-FD42-44BF-9B8A-95163966EE99}" name="two" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{C3FA2352-72BA-4B60-8D18-DADBC935FA16}" name="three" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{60979A2D-5CAC-401D-AC32-BFDA83B7CE6A}" name="four"/>
+    <tableColumn id="1" xr3:uid="{B36E05F7-6724-4839-B335-EE18AA387DFE}" name="IP address">
+      <calculatedColumnFormula>N4&amp;"."&amp;O4&amp;"."&amp;P4&amp;"."&amp;Q4</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{8154E5BA-A856-4275-AB52-4A02A1DA91CE}" name="Subnet"/>
+    <tableColumn id="3" xr3:uid="{77331BB6-6E28-4CC3-86BC-51FDA4CB01C1}" name="VLAN"/>
+    <tableColumn id="4" xr3:uid="{AE4C30A0-7A67-4B4F-88DE-D768644864A3}" name="Device"/>
+    <tableColumn id="5" xr3:uid="{92DB8EF3-9153-4928-A20B-5712B05BBF5A}" name="Port"/>
+    <tableColumn id="6" xr3:uid="{7CE65F97-CBF3-4E8F-B639-3FF8CBF36536}" name="Method"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A3AE0FB5-02C4-4472-B525-95B317F7C619}" name="Table2" displayName="Table2" ref="F9:M74" totalsRowShown="0" headerRowDxfId="11">
   <autoFilter ref="F9:M74" xr:uid="{A3AE0FB5-02C4-4472-B525-95B317F7C619}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{D8B7086B-B5BE-4BBF-B382-849E5E6BDBDF}" name="Networking" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{D8B7086B-B5BE-4BBF-B382-849E5E6BDBDF}" name="Network" dataDxfId="10">
       <calculatedColumnFormula>A10&amp;"."&amp;B10&amp;"."&amp;C10&amp;"."&amp;D10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{C27F23AA-8881-4D38-91D8-745BECCD2B6C}" name="Static" dataDxfId="5" dataCellStyle="Comma">
+    <tableColumn id="2" xr3:uid="{C27F23AA-8881-4D38-91D8-745BECCD2B6C}" name="Static" dataDxfId="9" dataCellStyle="Comma">
       <calculatedColumnFormula>COUNTIFS($S:$S,$C10,$Z:$Z,"static")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{FBE56586-5F1B-4125-BE28-9C1D2B1B540F}" name="DHCP" dataDxfId="4" dataCellStyle="Comma">
+    <tableColumn id="3" xr3:uid="{FBE56586-5F1B-4125-BE28-9C1D2B1B540F}" name="DHCP" dataDxfId="8" dataCellStyle="Comma">
       <calculatedColumnFormula>COUNTIFS($S:$S,$C10,$Z:$Z,"DHCP")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{56AEFEBE-13A6-4250-83AA-05DAF60DF457}" name="Reserved" dataDxfId="3" dataCellStyle="Comma">
+    <tableColumn id="4" xr3:uid="{56AEFEBE-13A6-4250-83AA-05DAF60DF457}" name="Reserved" dataDxfId="7" dataCellStyle="Comma">
       <calculatedColumnFormula>COUNTIFS($S:$S,$C10,$Z:$Z,"reserve")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{92C3A52F-2F8F-4331-B9AA-090A908DF070}" name="Column1" dataDxfId="2" dataCellStyle="Comma">
+    <tableColumn id="5" xr3:uid="{92C3A52F-2F8F-4331-B9AA-090A908DF070}" name=" " dataDxfId="6" dataCellStyle="Comma">
       <calculatedColumnFormula>COUNTIFS($S:$S,$C9+1+1+1,$T:$T,"&lt;255")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{65FC15D4-83B0-4FD2-A0AF-C9AECF617ACB}" name="Total" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{65FC15D4-83B0-4FD2-A0AF-C9AECF617ACB}" name="Total" dataDxfId="5"/>
     <tableColumn id="7" xr3:uid="{EF5F4AF5-2C90-4C3B-896F-EABC8017796C}" name="In total usage address:"/>
-    <tableColumn id="8" xr3:uid="{D0911EEC-BEB8-42D4-831D-094391974FD0}" name="Column8"/>
+    <tableColumn id="8" xr3:uid="{D0911EEC-BEB8-42D4-831D-094391974FD0}" name="   "/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{09F161E2-7388-4319-8BEB-3687D30A441A}" name="Table6" displayName="Table6" ref="Q3:Z131" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="Q3:Z131" xr:uid="{09F161E2-7388-4319-8BEB-3687D30A441A}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{864EE4DC-273C-4FF2-8F34-0E863493E40F}" name="ONE"/>
+    <tableColumn id="2" xr3:uid="{D438150A-395C-4E9A-8075-9648990AD84C}" name="TWO"/>
+    <tableColumn id="3" xr3:uid="{A52BFA87-CD10-489F-9B37-5941E4742533}" name="THREE"/>
+    <tableColumn id="4" xr3:uid="{B476A844-435C-4B60-8977-D3B56DAA3EA1}" name="FOUR"/>
+    <tableColumn id="5" xr3:uid="{18D674A7-0FDF-403E-998E-B79F271C321B}" name="IP address"/>
+    <tableColumn id="6" xr3:uid="{87E6AC8D-FCC9-44A5-8979-90B626715FD7}" name="Subnet"/>
+    <tableColumn id="7" xr3:uid="{B2F996F8-AB9D-474C-90C0-85514719F463}" name="VLAN"/>
+    <tableColumn id="8" xr3:uid="{EBC42D0F-C09F-47E5-A67C-FA28254D9FCE}" name="Device"/>
+    <tableColumn id="9" xr3:uid="{7E547C14-161E-4D28-BD50-9EF91BADC484}" name="Port"/>
+    <tableColumn id="10" xr3:uid="{F5271697-B220-4542-89AD-4B5DB7307F14}" name="Method"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1356,31 +1517,31 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="1.85546875" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="1.88671875" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="40"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="46"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1400,7 +1561,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -1418,7 +1579,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1428,7 +1589,7 @@
       <c r="J5" s="2"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -1449,7 +1610,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>2</v>
       </c>
@@ -1472,7 +1633,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -1482,7 +1643,7 @@
       <c r="J8" s="2"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>3</v>
       </c>
@@ -1500,7 +1661,7 @@
         <v>76.56</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -1510,7 +1671,7 @@
       <c r="J10" s="2"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>4</v>
       </c>
@@ -1528,7 +1689,7 @@
         <v>59.88</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1537,7 +1698,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1546,7 +1707,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -1555,7 +1716,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -1564,7 +1725,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -1573,7 +1734,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="18" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G18" s="4">
         <v>44408</v>
       </c>
@@ -1606,23 +1767,23 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>19</v>
       </c>
@@ -1630,7 +1791,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>0</v>
       </c>
@@ -1638,7 +1799,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>23</v>
       </c>
@@ -1646,7 +1807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>15</v>
       </c>
@@ -1654,13 +1815,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="10"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>2</v>
       </c>
@@ -1668,7 +1829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>21</v>
       </c>
@@ -1689,12 +1850,12 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>24</v>
       </c>
@@ -1729,7 +1890,7 @@
         <v>44386</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="6">
         <v>0.29166666666666669</v>
       </c>
@@ -1742,7 +1903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="6">
         <v>0.33333333333333298</v>
       </c>
@@ -1755,7 +1916,7 @@
         <v>Run</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
         <v>0.375</v>
       </c>
@@ -1768,7 +1929,7 @@
         <v>Run</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="6">
         <v>0.41666666666666702</v>
       </c>
@@ -1781,7 +1942,7 @@
         <v>AWS</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="6">
         <v>0.45833333333333298</v>
       </c>
@@ -1794,7 +1955,7 @@
         <v>AWS</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="6">
         <v>0.5</v>
       </c>
@@ -1807,7 +1968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
         <v>0.54166666666666696</v>
       </c>
@@ -1820,7 +1981,7 @@
         <v>Jorge</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="6">
         <v>0.58333333333333304</v>
       </c>
@@ -1833,7 +1994,7 @@
         <v>Jorge</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="6">
         <v>0.625</v>
       </c>
@@ -1846,7 +2007,7 @@
         <v>VMWARE-VBT</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="6">
         <v>0.66666666666666696</v>
       </c>
@@ -1859,7 +2020,7 @@
         <v>VMWARE-VBT</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="6">
         <v>0.70833333333333304</v>
       </c>
@@ -1872,7 +2033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="6">
         <v>0.75</v>
       </c>
@@ -1885,7 +2046,7 @@
         <v>VMWARE-VBT</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="6">
         <v>0.79166666666666696</v>
       </c>
@@ -1898,7 +2059,7 @@
         <v>VMWARE-VBT</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="6">
         <v>0.83333333333333304</v>
       </c>
@@ -1911,7 +2072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="6">
         <v>0.875</v>
       </c>
@@ -1924,7 +2085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="6">
         <v>0.91666666666666696</v>
       </c>
@@ -1937,7 +2098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="6">
         <v>0.95833333333333304</v>
       </c>
@@ -1950,7 +2111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="6">
         <v>1</v>
       </c>
@@ -1976,12 +2137,12 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -1992,7 +2153,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -2009,7 +2170,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>44377</v>
       </c>
@@ -2027,7 +2188,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>44377</v>
       </c>
@@ -2045,7 +2206,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>44377</v>
       </c>
@@ -2060,7 +2221,7 @@
         <v>8.3333333333333315E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>44377</v>
       </c>
@@ -2075,7 +2236,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>44377</v>
       </c>
@@ -2091,7 +2252,7 @@
         <v>4.1666666666666741E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>44377</v>
       </c>
@@ -2107,7 +2268,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>44377</v>
       </c>
@@ -2126,7 +2287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>44377</v>
       </c>
@@ -2145,7 +2306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>44378</v>
       </c>
@@ -2163,7 +2324,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>44378</v>
       </c>
@@ -2181,7 +2342,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>44378</v>
       </c>
@@ -2199,7 +2360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>44378</v>
       </c>
@@ -2217,7 +2378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>44378</v>
       </c>
@@ -2232,7 +2393,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>44378</v>
       </c>
@@ -2251,7 +2412,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>44378</v>
       </c>
@@ -2270,7 +2431,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>44378</v>
       </c>
@@ -2289,7 +2450,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>44378</v>
       </c>
@@ -2307,7 +2468,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>44378</v>
       </c>
@@ -2325,7 +2486,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>44378</v>
       </c>
@@ -2344,7 +2505,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>44379</v>
       </c>
@@ -2359,7 +2520,7 @@
         <v>4.1666666666666685E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>44379</v>
       </c>
@@ -2374,7 +2535,7 @@
         <v>4.1666666666666685E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>44379</v>
       </c>
@@ -2392,7 +2553,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>44379</v>
       </c>
@@ -2407,7 +2568,7 @@
         <v>4.1666666666666685E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>44379</v>
       </c>
@@ -2422,7 +2583,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>44379</v>
       </c>
@@ -2438,7 +2599,7 @@
         <v>4.1666666666666741E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>44379</v>
       </c>
@@ -2454,7 +2615,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>44379</v>
       </c>
@@ -2470,7 +2631,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>44379</v>
       </c>
@@ -2485,7 +2646,7 @@
         <v>4.1666666666666741E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>44379</v>
       </c>
@@ -2500,7 +2661,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>44379</v>
       </c>
@@ -2516,7 +2677,7 @@
         <v>4.1666666666666741E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>44380</v>
       </c>
@@ -2531,7 +2692,7 @@
         <v>4.1666666666666685E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>44380</v>
       </c>
@@ -2546,7 +2707,7 @@
         <v>4.1666666666666685E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>44380</v>
       </c>
@@ -2561,7 +2722,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>44380</v>
       </c>
@@ -2576,7 +2737,7 @@
         <v>4.1666666666666685E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>44380</v>
       </c>
@@ -2591,7 +2752,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>44380</v>
       </c>
@@ -2607,7 +2768,7 @@
         <v>4.1666666666666741E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>44380</v>
       </c>
@@ -2623,7 +2784,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>44380</v>
       </c>
@@ -2639,7 +2800,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>44380</v>
       </c>
@@ -2654,7 +2815,7 @@
         <v>4.1666666666666741E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>44380</v>
       </c>
@@ -2669,7 +2830,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>44380</v>
       </c>
@@ -2698,12 +2859,12 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -2711,7 +2872,7 @@
         <v>44469</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -2719,7 +2880,7 @@
         <v>44390</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -2728,22 +2889,22 @@
         <v>-79</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -2755,34 +2916,38 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{488CE08B-0320-41C7-A7B9-B489E853E697}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A2:W73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.140625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="8.140625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="9.140625" collapsed="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.7109375" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="9.109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="8.109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="9.109375" collapsed="1"/>
+    <col min="6" max="6" width="16.21875" customWidth="1"/>
+    <col min="7" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" style="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.85546875" customWidth="1"/>
-    <col min="14" max="17" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="20" width="12.7109375" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5546875" customWidth="1"/>
+    <col min="14" max="17" width="8.88671875" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="12.6640625" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="F3" s="41" t="s">
+    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F3" s="37" t="s">
         <v>37</v>
       </c>
       <c r="G3" s="14" t="s">
@@ -2791,35 +2956,87 @@
       <c r="H3" s="14"/>
       <c r="I3" s="15"/>
       <c r="J3" s="13"/>
-      <c r="K3" s="42" t="s">
+      <c r="K3" s="38" t="s">
         <v>39</v>
       </c>
       <c r="L3" s="25" t="s">
         <v>47</v>
       </c>
       <c r="M3" s="15"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F4" s="16"/>
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
       <c r="I4" s="18"/>
       <c r="J4" s="16"/>
-      <c r="K4" s="43" t="s">
+      <c r="K4" s="39" t="s">
         <v>41</v>
       </c>
       <c r="L4" s="26" t="s">
         <v>48</v>
       </c>
       <c r="M4" s="18"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N4" s="13">
+        <v>192</v>
+      </c>
+      <c r="O4" s="14">
+        <v>168</v>
+      </c>
+      <c r="P4" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="15">
+        <v>1</v>
+      </c>
+      <c r="R4" t="str">
+        <f>N4&amp;"."&amp;O4&amp;"."&amp;P4&amp;"."&amp;Q4</f>
+        <v>192.168.1.1</v>
+      </c>
+      <c r="U4" t="s">
+        <v>56</v>
+      </c>
+      <c r="W4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F5" s="16"/>
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
       <c r="I5" s="18"/>
       <c r="J5" s="16"/>
-      <c r="K5" s="45" t="s">
+      <c r="K5" s="41" t="s">
         <v>43</v>
       </c>
       <c r="L5" s="31">
@@ -2827,14 +3044,36 @@
         <v>59</v>
       </c>
       <c r="M5" s="18"/>
-    </row>
-    <row r="6" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N5" s="13">
+        <v>192</v>
+      </c>
+      <c r="O5" s="14">
+        <v>168</v>
+      </c>
+      <c r="P5" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>2</v>
+      </c>
+      <c r="R5" t="str">
+        <f>N5&amp;"."&amp;O5&amp;"."&amp;P5&amp;"."&amp;Q5</f>
+        <v>192.168.1.2</v>
+      </c>
+      <c r="U5" t="s">
+        <v>73</v>
+      </c>
+      <c r="W5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F6" s="19"/>
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
       <c r="I6" s="21"/>
       <c r="J6" s="19"/>
-      <c r="K6" s="46" t="s">
+      <c r="K6" s="42" t="s">
         <v>45</v>
       </c>
       <c r="L6" s="28">
@@ -2842,12 +3081,80 @@
         <v>195</v>
       </c>
       <c r="M6" s="21"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N6" s="13">
+        <v>192</v>
+      </c>
+      <c r="O6" s="14">
+        <v>168</v>
+      </c>
+      <c r="P6" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>3</v>
+      </c>
+      <c r="R6" t="str">
+        <f>N6&amp;"."&amp;O6&amp;"."&amp;P6&amp;"."&amp;Q6</f>
+        <v>192.168.1.3</v>
+      </c>
+      <c r="U6" t="s">
+        <v>72</v>
+      </c>
+      <c r="W6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K7" s="33"/>
-    </row>
-    <row r="9" spans="1:23" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F9" s="47" t="s">
+      <c r="N7" s="13">
+        <v>192</v>
+      </c>
+      <c r="O7" s="14">
+        <v>168</v>
+      </c>
+      <c r="P7" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>5</v>
+      </c>
+      <c r="R7" t="str">
+        <f>N7&amp;"."&amp;O7&amp;"."&amp;P7&amp;"."&amp;Q7</f>
+        <v>192.168.1.5</v>
+      </c>
+      <c r="U7" t="s">
+        <v>71</v>
+      </c>
+      <c r="W7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N8" s="13">
+        <v>192</v>
+      </c>
+      <c r="O8" s="14">
+        <v>168</v>
+      </c>
+      <c r="P8" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>6</v>
+      </c>
+      <c r="R8" t="str">
+        <f>N8&amp;"."&amp;O8&amp;"."&amp;P8&amp;"."&amp;Q8</f>
+        <v>192.168.1.6</v>
+      </c>
+      <c r="U8" t="s">
+        <v>57</v>
+      </c>
+      <c r="W8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="41.4" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F9" s="43" t="s">
         <v>62</v>
       </c>
       <c r="G9" s="35" t="s">
@@ -2857,41 +3164,41 @@
         <v>59</v>
       </c>
       <c r="I9" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="J9" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="K9" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="L9" s="47" t="s">
+      <c r="K9" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="S9" s="1" t="s">
+      <c r="N9" s="13">
+        <v>192</v>
+      </c>
+      <c r="O9" s="14">
+        <v>168</v>
+      </c>
+      <c r="P9" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>7</v>
+      </c>
+      <c r="R9" t="str">
+        <f>N9&amp;"."&amp;O9&amp;"."&amp;P9&amp;"."&amp;Q9</f>
+        <v>192.168.1.7</v>
+      </c>
+      <c r="U9" t="s">
         <v>70</v>
       </c>
-      <c r="T9" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -2924,24 +3231,24 @@
       <c r="P10" s="14">
         <v>1</v>
       </c>
-      <c r="Q10" s="15">
-        <v>254</v>
+      <c r="Q10">
+        <v>50</v>
       </c>
       <c r="R10" t="str">
         <f>N10&amp;"."&amp;O10&amp;"."&amp;P10&amp;"."&amp;Q10</f>
-        <v>192.168.1.254</v>
+        <v>192.168.1.50</v>
       </c>
       <c r="U10" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="W10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13">
         <v>192</v>
       </c>
@@ -2993,23 +3300,17 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R11" t="str">
-        <f t="shared" ref="R11:R15" si="4">N11&amp;"."&amp;O11&amp;"."&amp;P11&amp;"."&amp;Q11</f>
-        <v>192.168.1.50</v>
-      </c>
-      <c r="U11" t="s">
-        <v>54</v>
-      </c>
-      <c r="V11" t="s">
-        <v>55</v>
+        <f>N11&amp;"."&amp;O11&amp;"."&amp;P11&amp;"."&amp;Q11</f>
+        <v>192.168.1.100</v>
       </c>
       <c r="W11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="16"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
@@ -3047,20 +3348,17 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="R12" t="str">
-        <f t="shared" si="4"/>
-        <v>192.168.1.7</v>
-      </c>
-      <c r="U12" t="s">
-        <v>72</v>
+        <f>N12&amp;"."&amp;O12&amp;"."&amp;P12&amp;"."&amp;Q12</f>
+        <v>192.168.1.101</v>
       </c>
       <c r="W12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="16"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
@@ -3098,20 +3396,17 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="R13" t="str">
-        <f t="shared" si="4"/>
-        <v>192.168.1.5</v>
-      </c>
-      <c r="U13" t="s">
-        <v>73</v>
+        <f>N13&amp;"."&amp;O13&amp;"."&amp;P13&amp;"."&amp;Q13</f>
+        <v>192.168.1.102</v>
       </c>
       <c r="W13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="16"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
@@ -3149,20 +3444,17 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="R14" t="str">
-        <f t="shared" si="4"/>
-        <v>192.168.1.6</v>
-      </c>
-      <c r="U14" t="s">
-        <v>57</v>
+        <f>N14&amp;"."&amp;O14&amp;"."&amp;P14&amp;"."&amp;Q14</f>
+        <v>192.168.1.103</v>
       </c>
       <c r="W14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="16"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -3200,20 +3492,17 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>104</v>
       </c>
       <c r="R15" t="str">
-        <f t="shared" si="4"/>
-        <v>192.168.1.1</v>
-      </c>
-      <c r="U15" t="s">
-        <v>56</v>
+        <f>N15&amp;"."&amp;O15&amp;"."&amp;P15&amp;"."&amp;Q15</f>
+        <v>192.168.1.104</v>
       </c>
       <c r="W15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="16"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
@@ -3251,20 +3540,17 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="R16" t="str">
-        <f t="shared" ref="R16:R68" si="5">N16&amp;"."&amp;O16&amp;"."&amp;P16&amp;"."&amp;Q16</f>
-        <v>192.168.1.3</v>
-      </c>
-      <c r="U16" t="s">
-        <v>74</v>
+        <f>N16&amp;"."&amp;O16&amp;"."&amp;P16&amp;"."&amp;Q16</f>
+        <v>192.168.1.105</v>
       </c>
       <c r="W16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="16"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
@@ -3302,20 +3588,17 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>2</v>
+        <v>106</v>
       </c>
       <c r="R17" t="str">
-        <f t="shared" si="5"/>
-        <v>192.168.1.2</v>
-      </c>
-      <c r="U17" t="s">
+        <f>N17&amp;"."&amp;O17&amp;"."&amp;P17&amp;"."&amp;Q17</f>
+        <v>192.168.1.106</v>
+      </c>
+      <c r="W17" t="s">
         <v>75</v>
       </c>
-      <c r="W17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="16"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
@@ -3353,17 +3636,17 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="R18" t="str">
-        <f t="shared" si="5"/>
-        <v>192.168.1.100</v>
+        <f>N18&amp;"."&amp;O18&amp;"."&amp;P18&amp;"."&amp;Q18</f>
+        <v>192.168.1.107</v>
       </c>
       <c r="W18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="16"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
@@ -3401,17 +3684,17 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="R19" t="str">
-        <f t="shared" si="5"/>
-        <v>192.168.1.101</v>
+        <f>N19&amp;"."&amp;O19&amp;"."&amp;P19&amp;"."&amp;Q19</f>
+        <v>192.168.1.108</v>
       </c>
       <c r="W19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="16"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
@@ -3449,17 +3732,17 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="R20" t="str">
-        <f t="shared" si="5"/>
-        <v>192.168.1.102</v>
+        <f>N20&amp;"."&amp;O20&amp;"."&amp;P20&amp;"."&amp;Q20</f>
+        <v>192.168.1.109</v>
       </c>
       <c r="W20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="16"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
@@ -3497,17 +3780,17 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="R21" t="str">
-        <f t="shared" si="5"/>
-        <v>192.168.1.103</v>
+        <f>N21&amp;"."&amp;O21&amp;"."&amp;P21&amp;"."&amp;Q21</f>
+        <v>192.168.1.110</v>
       </c>
       <c r="W21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="16"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
@@ -3545,17 +3828,17 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="R22" t="str">
-        <f t="shared" si="5"/>
-        <v>192.168.1.104</v>
+        <f>N22&amp;"."&amp;O22&amp;"."&amp;P22&amp;"."&amp;Q22</f>
+        <v>192.168.1.111</v>
       </c>
       <c r="W22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="16"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
@@ -3593,17 +3876,17 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="R23" t="str">
-        <f t="shared" si="5"/>
-        <v>192.168.1.105</v>
+        <f>N23&amp;"."&amp;O23&amp;"."&amp;P23&amp;"."&amp;Q23</f>
+        <v>192.168.1.112</v>
       </c>
       <c r="W23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="16"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
@@ -3641,17 +3924,17 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="R24" t="str">
-        <f t="shared" si="5"/>
-        <v>192.168.1.106</v>
+        <f>N24&amp;"."&amp;O24&amp;"."&amp;P24&amp;"."&amp;Q24</f>
+        <v>192.168.1.113</v>
       </c>
       <c r="W24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="16"/>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
@@ -3689,17 +3972,17 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="R25" t="str">
-        <f t="shared" si="5"/>
-        <v>192.168.1.107</v>
+        <f>N25&amp;"."&amp;O25&amp;"."&amp;P25&amp;"."&amp;Q25</f>
+        <v>192.168.1.114</v>
       </c>
       <c r="W25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="16"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
@@ -3737,17 +4020,17 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="R26" t="str">
-        <f t="shared" si="5"/>
-        <v>192.168.1.108</v>
+        <f>N26&amp;"."&amp;O26&amp;"."&amp;P26&amp;"."&amp;Q26</f>
+        <v>192.168.1.115</v>
       </c>
       <c r="W26" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="16"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
@@ -3785,17 +4068,17 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="R27" t="str">
-        <f t="shared" si="5"/>
-        <v>192.168.1.109</v>
+        <f>N27&amp;"."&amp;O27&amp;"."&amp;P27&amp;"."&amp;Q27</f>
+        <v>192.168.1.116</v>
       </c>
       <c r="W27" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="16"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
@@ -3833,17 +4116,17 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="R28" t="str">
-        <f t="shared" si="5"/>
-        <v>192.168.1.110</v>
+        <f>N28&amp;"."&amp;O28&amp;"."&amp;P28&amp;"."&amp;Q28</f>
+        <v>192.168.1.117</v>
       </c>
       <c r="W28" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="16"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
@@ -3881,17 +4164,17 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="R29" t="str">
-        <f t="shared" si="5"/>
-        <v>192.168.1.111</v>
+        <f>N29&amp;"."&amp;O29&amp;"."&amp;P29&amp;"."&amp;Q29</f>
+        <v>192.168.1.118</v>
       </c>
       <c r="W29" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="16"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -3929,17 +4212,17 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="R30" t="str">
-        <f t="shared" si="5"/>
-        <v>192.168.1.112</v>
+        <f>N30&amp;"."&amp;O30&amp;"."&amp;P30&amp;"."&amp;Q30</f>
+        <v>192.168.1.119</v>
       </c>
       <c r="W30" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="16"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
@@ -3977,17 +4260,17 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="R31" t="str">
-        <f t="shared" si="5"/>
-        <v>192.168.1.113</v>
+        <f>N31&amp;"."&amp;O31&amp;"."&amp;P31&amp;"."&amp;Q31</f>
+        <v>192.168.1.120</v>
       </c>
       <c r="W31" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="16"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -4025,17 +4308,17 @@
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="R32" t="str">
-        <f t="shared" si="5"/>
-        <v>192.168.1.114</v>
+        <f>N32&amp;"."&amp;O32&amp;"."&amp;P32&amp;"."&amp;Q32</f>
+        <v>192.168.1.121</v>
       </c>
       <c r="W32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="16"/>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
@@ -4055,17 +4338,17 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="R33" t="str">
-        <f t="shared" si="5"/>
-        <v>192.168.1.115</v>
+        <f>N33&amp;"."&amp;O33&amp;"."&amp;P33&amp;"."&amp;Q33</f>
+        <v>192.168.1.122</v>
       </c>
       <c r="W33" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="16"/>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
@@ -4085,17 +4368,17 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="R34" t="str">
-        <f t="shared" si="5"/>
-        <v>192.168.1.116</v>
+        <f>N34&amp;"."&amp;O34&amp;"."&amp;P34&amp;"."&amp;Q34</f>
+        <v>192.168.1.123</v>
       </c>
       <c r="W34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="16"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
@@ -4115,17 +4398,17 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="R35" t="str">
-        <f t="shared" si="5"/>
-        <v>192.168.1.117</v>
+        <f>N35&amp;"."&amp;O35&amp;"."&amp;P35&amp;"."&amp;Q35</f>
+        <v>192.168.1.124</v>
       </c>
       <c r="W35" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="16"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
@@ -4145,17 +4428,17 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="R36" t="str">
-        <f t="shared" si="5"/>
-        <v>192.168.1.118</v>
+        <f>N36&amp;"."&amp;O36&amp;"."&amp;P36&amp;"."&amp;Q36</f>
+        <v>192.168.1.125</v>
       </c>
       <c r="W36" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="16"/>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
@@ -4175,17 +4458,17 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="R37" t="str">
-        <f t="shared" si="5"/>
-        <v>192.168.1.119</v>
+        <f>N37&amp;"."&amp;O37&amp;"."&amp;P37&amp;"."&amp;Q37</f>
+        <v>192.168.1.126</v>
       </c>
       <c r="W37" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="16"/>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
@@ -4205,17 +4488,17 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="R38" t="str">
-        <f t="shared" si="5"/>
-        <v>192.168.1.120</v>
+        <f>N38&amp;"."&amp;O38&amp;"."&amp;P38&amp;"."&amp;Q38</f>
+        <v>192.168.1.127</v>
       </c>
       <c r="W38" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="16"/>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
@@ -4235,17 +4518,17 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="R39" t="str">
-        <f t="shared" si="5"/>
-        <v>192.168.1.121</v>
+        <f>N39&amp;"."&amp;O39&amp;"."&amp;P39&amp;"."&amp;Q39</f>
+        <v>192.168.1.128</v>
       </c>
       <c r="W39" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="16"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
@@ -4265,17 +4548,17 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="R40" t="str">
-        <f t="shared" si="5"/>
-        <v>192.168.1.122</v>
+        <f>N40&amp;"."&amp;O40&amp;"."&amp;P40&amp;"."&amp;Q40</f>
+        <v>192.168.1.129</v>
       </c>
       <c r="W40" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="16"/>
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
@@ -4295,17 +4578,17 @@
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="R41" t="str">
-        <f t="shared" si="5"/>
-        <v>192.168.1.123</v>
+        <f>N41&amp;"."&amp;O41&amp;"."&amp;P41&amp;"."&amp;Q41</f>
+        <v>192.168.1.130</v>
       </c>
       <c r="W41" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="16"/>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
@@ -4325,17 +4608,17 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="R42" t="str">
-        <f t="shared" si="5"/>
-        <v>192.168.1.124</v>
+        <f>N42&amp;"."&amp;O42&amp;"."&amp;P42&amp;"."&amp;Q42</f>
+        <v>192.168.1.131</v>
       </c>
       <c r="W42" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="16"/>
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
@@ -4355,17 +4638,17 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="R43" t="str">
-        <f t="shared" si="5"/>
-        <v>192.168.1.125</v>
+        <f>N43&amp;"."&amp;O43&amp;"."&amp;P43&amp;"."&amp;Q43</f>
+        <v>192.168.1.132</v>
       </c>
       <c r="W43" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="16"/>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
@@ -4385,17 +4668,17 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="R44" t="str">
-        <f t="shared" si="5"/>
-        <v>192.168.1.126</v>
+        <f>N44&amp;"."&amp;O44&amp;"."&amp;P44&amp;"."&amp;Q44</f>
+        <v>192.168.1.133</v>
       </c>
       <c r="W44" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="16"/>
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
@@ -4415,17 +4698,17 @@
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="R45" t="str">
-        <f t="shared" si="5"/>
-        <v>192.168.1.127</v>
+        <f>N45&amp;"."&amp;O45&amp;"."&amp;P45&amp;"."&amp;Q45</f>
+        <v>192.168.1.134</v>
       </c>
       <c r="W45" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="16"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
@@ -4445,17 +4728,17 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="R46" t="str">
-        <f t="shared" si="5"/>
-        <v>192.168.1.128</v>
+        <f>N46&amp;"."&amp;O46&amp;"."&amp;P46&amp;"."&amp;Q46</f>
+        <v>192.168.1.135</v>
       </c>
       <c r="W46" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="16"/>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
@@ -4475,17 +4758,17 @@
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="R47" t="str">
-        <f t="shared" si="5"/>
-        <v>192.168.1.129</v>
+        <f>N47&amp;"."&amp;O47&amp;"."&amp;P47&amp;"."&amp;Q47</f>
+        <v>192.168.1.136</v>
       </c>
       <c r="W47" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="16"/>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
@@ -4505,17 +4788,17 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="R48" t="str">
-        <f t="shared" si="5"/>
-        <v>192.168.1.130</v>
+        <f>N48&amp;"."&amp;O48&amp;"."&amp;P48&amp;"."&amp;Q48</f>
+        <v>192.168.1.137</v>
       </c>
       <c r="W48" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="16"/>
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
@@ -4535,17 +4818,17 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="R49" t="str">
-        <f t="shared" si="5"/>
-        <v>192.168.1.131</v>
+        <f>N49&amp;"."&amp;O49&amp;"."&amp;P49&amp;"."&amp;Q49</f>
+        <v>192.168.1.138</v>
       </c>
       <c r="W49" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="16"/>
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
@@ -4565,17 +4848,17 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="R50" t="str">
-        <f t="shared" si="5"/>
-        <v>192.168.1.132</v>
+        <f>N50&amp;"."&amp;O50&amp;"."&amp;P50&amp;"."&amp;Q50</f>
+        <v>192.168.1.139</v>
       </c>
       <c r="W50" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="16"/>
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
@@ -4595,17 +4878,17 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="R51" t="str">
-        <f t="shared" si="5"/>
-        <v>192.168.1.133</v>
+        <f>N51&amp;"."&amp;O51&amp;"."&amp;P51&amp;"."&amp;Q51</f>
+        <v>192.168.1.140</v>
       </c>
       <c r="W51" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="16"/>
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
@@ -4625,17 +4908,17 @@
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="R52" t="str">
-        <f t="shared" si="5"/>
-        <v>192.168.1.134</v>
+        <f>N52&amp;"."&amp;O52&amp;"."&amp;P52&amp;"."&amp;Q52</f>
+        <v>192.168.1.141</v>
       </c>
       <c r="W52" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="16"/>
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
@@ -4655,17 +4938,17 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="R53" t="str">
-        <f t="shared" si="5"/>
-        <v>192.168.1.135</v>
+        <f>N53&amp;"."&amp;O53&amp;"."&amp;P53&amp;"."&amp;Q53</f>
+        <v>192.168.1.142</v>
       </c>
       <c r="W53" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="16"/>
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
@@ -4685,17 +4968,17 @@
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="R54" t="str">
-        <f t="shared" si="5"/>
-        <v>192.168.1.136</v>
+        <f>N54&amp;"."&amp;O54&amp;"."&amp;P54&amp;"."&amp;Q54</f>
+        <v>192.168.1.143</v>
       </c>
       <c r="W54" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="16"/>
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
@@ -4715,17 +4998,17 @@
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="R55" t="str">
-        <f t="shared" si="5"/>
-        <v>192.168.1.137</v>
+        <f>N55&amp;"."&amp;O55&amp;"."&amp;P55&amp;"."&amp;Q55</f>
+        <v>192.168.1.144</v>
       </c>
       <c r="W55" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="16"/>
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
@@ -4745,17 +5028,17 @@
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="R56" t="str">
-        <f t="shared" si="5"/>
-        <v>192.168.1.138</v>
+        <f>N56&amp;"."&amp;O56&amp;"."&amp;P56&amp;"."&amp;Q56</f>
+        <v>192.168.1.145</v>
       </c>
       <c r="W56" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="16"/>
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
@@ -4775,17 +5058,17 @@
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="R57" t="str">
-        <f t="shared" si="5"/>
-        <v>192.168.1.139</v>
+        <f>N57&amp;"."&amp;O57&amp;"."&amp;P57&amp;"."&amp;Q57</f>
+        <v>192.168.1.146</v>
       </c>
       <c r="W57" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="16"/>
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
@@ -4805,17 +5088,17 @@
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="R58" t="str">
-        <f t="shared" si="5"/>
-        <v>192.168.1.140</v>
+        <f>N58&amp;"."&amp;O58&amp;"."&amp;P58&amp;"."&amp;Q58</f>
+        <v>192.168.1.147</v>
       </c>
       <c r="W58" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="16"/>
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
@@ -4835,17 +5118,17 @@
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="R59" t="str">
-        <f t="shared" si="5"/>
-        <v>192.168.1.141</v>
+        <f>N59&amp;"."&amp;O59&amp;"."&amp;P59&amp;"."&amp;Q59</f>
+        <v>192.168.1.148</v>
       </c>
       <c r="W59" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="16"/>
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
@@ -4865,17 +5148,17 @@
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="R60" t="str">
-        <f t="shared" si="5"/>
-        <v>192.168.1.142</v>
+        <f>N60&amp;"."&amp;O60&amp;"."&amp;P60&amp;"."&amp;Q60</f>
+        <v>192.168.1.149</v>
       </c>
       <c r="W60" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="16"/>
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
@@ -4895,17 +5178,17 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="R61" t="str">
-        <f t="shared" si="5"/>
-        <v>192.168.1.143</v>
+        <f>N61&amp;"."&amp;O61&amp;"."&amp;P61&amp;"."&amp;Q61</f>
+        <v>192.168.1.150</v>
       </c>
       <c r="W61" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" s="16"/>
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
@@ -4924,18 +5207,24 @@
       <c r="P62" s="14">
         <v>1</v>
       </c>
-      <c r="Q62">
-        <v>144</v>
+      <c r="Q62" s="17">
+        <v>254</v>
       </c>
       <c r="R62" t="str">
-        <f t="shared" si="5"/>
-        <v>192.168.1.144</v>
+        <f>N62&amp;"."&amp;O62&amp;"."&amp;P62&amp;"."&amp;Q62</f>
+        <v>192.168.1.254</v>
+      </c>
+      <c r="U62" t="s">
+        <v>51</v>
+      </c>
+      <c r="V62" t="s">
+        <v>52</v>
       </c>
       <c r="W62" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" s="16"/>
       <c r="B63" s="17"/>
       <c r="C63" s="17"/>
@@ -4945,27 +5234,8 @@
       <c r="H63" s="23"/>
       <c r="I63" s="22"/>
       <c r="J63" s="22"/>
-      <c r="N63" s="13">
-        <v>192</v>
-      </c>
-      <c r="O63" s="14">
-        <v>168</v>
-      </c>
-      <c r="P63" s="14">
-        <v>1</v>
-      </c>
-      <c r="Q63">
-        <v>145</v>
-      </c>
-      <c r="R63" t="str">
-        <f t="shared" si="5"/>
-        <v>192.168.1.145</v>
-      </c>
-      <c r="W63" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" s="16"/>
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
@@ -4975,27 +5245,8 @@
       <c r="H64" s="23"/>
       <c r="I64" s="22"/>
       <c r="J64" s="22"/>
-      <c r="N64" s="13">
-        <v>192</v>
-      </c>
-      <c r="O64" s="14">
-        <v>168</v>
-      </c>
-      <c r="P64" s="14">
-        <v>1</v>
-      </c>
-      <c r="Q64">
-        <v>146</v>
-      </c>
-      <c r="R64" t="str">
-        <f t="shared" si="5"/>
-        <v>192.168.1.146</v>
-      </c>
-      <c r="W64" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="16"/>
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
@@ -5005,27 +5256,8 @@
       <c r="H65" s="23"/>
       <c r="I65" s="22"/>
       <c r="J65" s="22"/>
-      <c r="N65" s="13">
-        <v>192</v>
-      </c>
-      <c r="O65" s="14">
-        <v>168</v>
-      </c>
-      <c r="P65" s="14">
-        <v>1</v>
-      </c>
-      <c r="Q65">
-        <v>147</v>
-      </c>
-      <c r="R65" t="str">
-        <f t="shared" si="5"/>
-        <v>192.168.1.147</v>
-      </c>
-      <c r="W65" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="16"/>
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
@@ -5035,27 +5267,8 @@
       <c r="H66" s="23"/>
       <c r="I66" s="22"/>
       <c r="J66" s="22"/>
-      <c r="N66" s="13">
-        <v>192</v>
-      </c>
-      <c r="O66" s="14">
-        <v>168</v>
-      </c>
-      <c r="P66" s="14">
-        <v>1</v>
-      </c>
-      <c r="Q66">
-        <v>148</v>
-      </c>
-      <c r="R66" t="str">
-        <f t="shared" si="5"/>
-        <v>192.168.1.148</v>
-      </c>
-      <c r="W66" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="16"/>
       <c r="B67" s="17"/>
       <c r="C67" s="17"/>
@@ -5065,27 +5278,8 @@
       <c r="H67" s="23"/>
       <c r="I67" s="22"/>
       <c r="J67" s="22"/>
-      <c r="N67" s="13">
-        <v>192</v>
-      </c>
-      <c r="O67" s="14">
-        <v>168</v>
-      </c>
-      <c r="P67" s="14">
-        <v>1</v>
-      </c>
-      <c r="Q67">
-        <v>149</v>
-      </c>
-      <c r="R67" t="str">
-        <f t="shared" si="5"/>
-        <v>192.168.1.149</v>
-      </c>
-      <c r="W67" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="16"/>
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
@@ -5095,27 +5289,8 @@
       <c r="H68" s="23"/>
       <c r="I68" s="22"/>
       <c r="J68" s="22"/>
-      <c r="N68" s="13">
-        <v>192</v>
-      </c>
-      <c r="O68" s="14">
-        <v>168</v>
-      </c>
-      <c r="P68" s="14">
-        <v>1</v>
-      </c>
-      <c r="Q68">
-        <v>150</v>
-      </c>
-      <c r="R68" t="str">
-        <f t="shared" si="5"/>
-        <v>192.168.1.150</v>
-      </c>
-      <c r="W68" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="16"/>
       <c r="B69" s="17"/>
       <c r="C69" s="17"/>
@@ -5126,7 +5301,7 @@
       <c r="I69" s="22"/>
       <c r="J69" s="22"/>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="16"/>
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
@@ -5137,7 +5312,7 @@
       <c r="I70" s="22"/>
       <c r="J70" s="22"/>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="16"/>
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
@@ -5148,7 +5323,7 @@
       <c r="I71" s="22"/>
       <c r="J71" s="22"/>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="16"/>
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
@@ -5159,7 +5334,7 @@
       <c r="I72" s="22"/>
       <c r="J72" s="22"/>
     </row>
-    <row r="73" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="19"/>
       <c r="B73" s="20"/>
       <c r="C73" s="20"/>
@@ -5172,41 +5347,45 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <tableParts count="1">
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="68" fitToWidth="2" orientation="portrait" r:id="rId1"/>
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D90335B-B867-487F-AA6D-8B39B28AE44A}">
-  <dimension ref="A2:Z120"/>
+  <dimension ref="A2:Z114"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="E10" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA22" sqref="AA22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="4" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="9.140625" collapsed="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="12.7109375" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" collapsed="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="20" width="9.140625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="10.7109375" customWidth="1"/>
-    <col min="23" max="23" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="9.109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="20" width="10.44140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="10.6640625" customWidth="1"/>
+    <col min="23" max="23" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="F3" s="41" t="s">
+    <row r="2" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="F3" s="37" t="s">
         <v>37</v>
       </c>
       <c r="G3" s="14" t="s">
@@ -5215,35 +5394,87 @@
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
       <c r="J3" s="13"/>
-      <c r="K3" s="42" t="s">
+      <c r="K3" s="38" t="s">
         <v>39</v>
       </c>
       <c r="L3" s="25" t="s">
         <v>40</v>
       </c>
       <c r="M3" s="15"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Q3" t="s">
+        <v>92</v>
+      </c>
+      <c r="R3" t="s">
+        <v>93</v>
+      </c>
+      <c r="S3" t="s">
+        <v>95</v>
+      </c>
+      <c r="T3" t="s">
+        <v>94</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F4" s="16"/>
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
       <c r="I4" s="17"/>
       <c r="J4" s="16"/>
-      <c r="K4" s="43" t="s">
+      <c r="K4" s="39" t="s">
         <v>41</v>
       </c>
       <c r="L4" s="26" t="s">
         <v>42</v>
       </c>
       <c r="M4" s="18"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Q4">
+        <v>172</v>
+      </c>
+      <c r="R4">
+        <v>16</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>254</v>
+      </c>
+      <c r="U4" t="str">
+        <f>Q4&amp;"."&amp;R4&amp;"."&amp;S4&amp;"."&amp;T4</f>
+        <v>172.16.0.254</v>
+      </c>
+      <c r="X4" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F5" s="16"/>
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
       <c r="I5" s="17"/>
       <c r="J5" s="16"/>
-      <c r="K5" s="43" t="s">
+      <c r="K5" s="39" t="s">
         <v>43</v>
       </c>
       <c r="L5" s="31">
@@ -5251,14 +5482,39 @@
         <v>1413</v>
       </c>
       <c r="M5" s="18"/>
-    </row>
-    <row r="6" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q5">
+        <v>172</v>
+      </c>
+      <c r="R5">
+        <v>16</v>
+      </c>
+      <c r="S5">
+        <v>10</v>
+      </c>
+      <c r="T5">
+        <v>254</v>
+      </c>
+      <c r="U5" t="str">
+        <f t="shared" ref="U5:U6" si="0">Q5&amp;"."&amp;R5&amp;"."&amp;S5&amp;"."&amp;T5</f>
+        <v>172.16.10.254</v>
+      </c>
+      <c r="X5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y5" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F6" s="19"/>
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
       <c r="I6" s="20"/>
       <c r="J6" s="19"/>
-      <c r="K6" s="44" t="s">
+      <c r="K6" s="40" t="s">
         <v>45</v>
       </c>
       <c r="L6" s="28">
@@ -5266,18 +5522,93 @@
         <v>111</v>
       </c>
       <c r="M6" s="21"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Q6">
+        <v>172</v>
+      </c>
+      <c r="R6">
+        <v>16</v>
+      </c>
+      <c r="S6">
+        <v>20</v>
+      </c>
+      <c r="T6">
+        <v>254</v>
+      </c>
+      <c r="U6" t="str">
+        <f t="shared" si="0"/>
+        <v>172.16.20.254</v>
+      </c>
+      <c r="X6" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y6" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="L7" s="11"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Q7">
+        <v>172</v>
+      </c>
+      <c r="R7">
+        <v>16</v>
+      </c>
+      <c r="S7">
+        <v>10</v>
+      </c>
+      <c r="T7">
+        <v>253</v>
+      </c>
+      <c r="U7" t="str">
+        <f t="shared" ref="U7:U8" si="1">Q7&amp;"."&amp;R7&amp;"."&amp;S7&amp;"."&amp;T7</f>
+        <v>172.16.10.253</v>
+      </c>
+      <c r="W7" t="s">
+        <v>86</v>
+      </c>
+      <c r="X7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="H8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+      <c r="Q8">
+        <v>172</v>
+      </c>
+      <c r="R8">
+        <v>16</v>
+      </c>
+      <c r="S8">
+        <v>20</v>
+      </c>
+      <c r="T8">
+        <v>253</v>
+      </c>
+      <c r="U8" t="str">
+        <f t="shared" si="1"/>
+        <v>172.16.20.253</v>
+      </c>
+      <c r="W8" t="s">
+        <v>86</v>
+      </c>
+      <c r="X8" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="41.4" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F9" s="34" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G9" s="35" t="s">
         <v>60</v>
@@ -5286,40 +5617,50 @@
         <v>59</v>
       </c>
       <c r="I9" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="J9" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="K9" s="37" t="s">
-        <v>76</v>
+        <v>67</v>
+      </c>
+      <c r="J9" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" s="36" t="s">
+        <v>74</v>
       </c>
       <c r="L9" s="34" t="s">
         <v>44</v>
       </c>
       <c r="M9" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="Q9">
+        <v>172</v>
+      </c>
+      <c r="R9">
+        <v>16</v>
+      </c>
+      <c r="S9">
+        <v>10</v>
+      </c>
+      <c r="T9">
+        <v>5</v>
+      </c>
+      <c r="U9" t="str">
+        <f t="shared" ref="U9:U15" si="2">Q9&amp;"."&amp;R9&amp;"."&amp;S9&amp;"."&amp;T9</f>
+        <v>172.16.10.5</v>
+      </c>
+      <c r="V9" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="W9" t="s">
+        <v>63</v>
+      </c>
+      <c r="X9" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>172</v>
       </c>
@@ -5334,19 +5675,19 @@
       </c>
       <c r="E10" s="17"/>
       <c r="F10" t="str">
-        <f t="shared" ref="F10:F12" si="0">A10&amp;"."&amp;B10&amp;"."&amp;C10&amp;"."&amp;D10</f>
+        <f t="shared" ref="F10:F12" si="3">A10&amp;"."&amp;B10&amp;"."&amp;C10&amp;"."&amp;D10</f>
         <v>172.16.0.0</v>
       </c>
       <c r="G10" s="22">
-        <f t="shared" ref="G10:G12" si="1">COUNTIFS($S:$S,$C10,$Z:$Z,"static")</f>
+        <f>COUNTIFS($S:$S,$C10,$Z:$Z,"static")</f>
         <v>1</v>
       </c>
       <c r="H10" s="22">
-        <f t="shared" ref="H10:H12" si="2">COUNTIFS($S:$S,$C10,$Z:$Z,"DHCP")</f>
+        <f>COUNTIFS($S:$S,$C10,$Z:$Z,"DHCP")</f>
         <v>0</v>
       </c>
       <c r="I10" s="22">
-        <f t="shared" ref="I10:I12" si="3">COUNTIFS($S:$S,$C10,$Z:$Z,"reserve")</f>
+        <f>COUNTIFS($S:$S,$C10,$Z:$Z,"reserve")</f>
         <v>0</v>
       </c>
       <c r="J10" s="12"/>
@@ -5365,23 +5706,29 @@
         <v>16</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T10">
-        <v>254</v>
+        <v>4</v>
       </c>
       <c r="U10" t="str">
-        <f>Q10&amp;"."&amp;R10&amp;"."&amp;S10&amp;"."&amp;T10</f>
-        <v>172.16.0.254</v>
+        <f t="shared" si="2"/>
+        <v>172.16.10.4</v>
+      </c>
+      <c r="V10" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="W10" t="s">
+        <v>63</v>
       </c>
       <c r="X10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <v>172</v>
       </c>
@@ -5396,19 +5743,19 @@
       </c>
       <c r="E11" s="17"/>
       <c r="F11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>172.16.10.0</v>
       </c>
       <c r="G11" s="22">
-        <f t="shared" si="1"/>
+        <f>COUNTIFS($S:$S,$C11,$Z:$Z,"static")</f>
         <v>2</v>
       </c>
       <c r="H11" s="22">
-        <f t="shared" si="2"/>
+        <f>COUNTIFS($S:$S,$C11,$Z:$Z,"DHCP")</f>
         <v>4</v>
       </c>
       <c r="I11" s="22">
-        <f t="shared" si="3"/>
+        <f>COUNTIFS($S:$S,$C11,$Z:$Z,"reserve")</f>
         <v>50</v>
       </c>
       <c r="J11" s="22"/>
@@ -5430,23 +5777,26 @@
         <v>10</v>
       </c>
       <c r="T11">
-        <v>254</v>
+        <v>2</v>
       </c>
       <c r="U11" t="str">
-        <f t="shared" ref="U11:U12" si="4">Q11&amp;"."&amp;R11&amp;"."&amp;S11&amp;"."&amp;T11</f>
-        <v>172.16.10.254</v>
+        <f t="shared" si="2"/>
+        <v>172.16.10.2</v>
+      </c>
+      <c r="V11" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="W11" t="s">
+        <v>63</v>
       </c>
       <c r="X11" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y11" s="12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Z11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>172</v>
       </c>
@@ -5461,19 +5811,19 @@
       </c>
       <c r="E12" s="17"/>
       <c r="F12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>172.16.20.0</v>
       </c>
       <c r="G12" s="22">
-        <f t="shared" si="1"/>
+        <f>COUNTIFS($S:$S,$C12,$Z:$Z,"static")</f>
         <v>2</v>
       </c>
       <c r="H12" s="22">
-        <f t="shared" si="2"/>
+        <f>COUNTIFS($S:$S,$C12,$Z:$Z,"DHCP")</f>
         <v>2</v>
       </c>
       <c r="I12" s="22">
-        <f t="shared" si="3"/>
+        <f>COUNTIFS($S:$S,$C12,$Z:$Z,"reserve")</f>
         <v>50</v>
       </c>
       <c r="J12" s="22"/>
@@ -5492,26 +5842,29 @@
         <v>16</v>
       </c>
       <c r="S12">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T12">
-        <v>254</v>
+        <v>6</v>
       </c>
       <c r="U12" t="str">
-        <f t="shared" si="4"/>
-        <v>172.16.20.254</v>
+        <f t="shared" si="2"/>
+        <v>172.16.10.6</v>
+      </c>
+      <c r="V12" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="W12" t="s">
+        <v>63</v>
       </c>
       <c r="X12" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y12" s="12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Z12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="16"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
@@ -5529,26 +5882,29 @@
         <v>16</v>
       </c>
       <c r="S13">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T13">
-        <v>253</v>
+        <v>2</v>
       </c>
       <c r="U13" t="str">
-        <f t="shared" ref="U13:U14" si="5">Q13&amp;"."&amp;R13&amp;"."&amp;S13&amp;"."&amp;T13</f>
-        <v>172.16.10.253</v>
+        <f t="shared" si="2"/>
+        <v>172.16.20.2</v>
+      </c>
+      <c r="V13" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="W13" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="X13" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="Z13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="16"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
@@ -5569,23 +5925,26 @@
         <v>20</v>
       </c>
       <c r="T14">
-        <v>253</v>
+        <v>1</v>
       </c>
       <c r="U14" t="str">
-        <f t="shared" si="5"/>
-        <v>172.16.20.253</v>
+        <f t="shared" si="2"/>
+        <v>172.16.20.1</v>
+      </c>
+      <c r="V14" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="W14" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="X14" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="Z14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -5606,26 +5965,17 @@
         <v>10</v>
       </c>
       <c r="T15">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="U15" t="str">
-        <f t="shared" ref="U15:U21" si="6">Q15&amp;"."&amp;R15&amp;"."&amp;S15&amp;"."&amp;T15</f>
-        <v>172.16.10.5</v>
-      </c>
-      <c r="V15" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="W15" t="s">
-        <v>63</v>
-      </c>
-      <c r="X15" t="s">
-        <v>82</v>
+        <f t="shared" si="2"/>
+        <v>172.16.10.51</v>
       </c>
       <c r="Z15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="16"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
@@ -5646,26 +5996,17 @@
         <v>10</v>
       </c>
       <c r="T16">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="U16" t="str">
-        <f t="shared" si="6"/>
-        <v>172.16.10.4</v>
-      </c>
-      <c r="V16" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="W16" t="s">
-        <v>63</v>
-      </c>
-      <c r="X16" t="s">
-        <v>83</v>
+        <f t="shared" ref="U16:U64" si="4">Q16&amp;"."&amp;R16&amp;"."&amp;S16&amp;"."&amp;T16</f>
+        <v>172.16.10.52</v>
       </c>
       <c r="Z16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="16"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
@@ -5686,26 +6027,17 @@
         <v>10</v>
       </c>
       <c r="T17">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="U17" t="str">
-        <f t="shared" si="6"/>
-        <v>172.16.10.2</v>
-      </c>
-      <c r="V17" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="W17" t="s">
-        <v>63</v>
-      </c>
-      <c r="X17" t="s">
-        <v>84</v>
+        <f t="shared" si="4"/>
+        <v>172.16.10.53</v>
       </c>
       <c r="Z17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="16"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
@@ -5725,26 +6057,17 @@
         <v>10</v>
       </c>
       <c r="T18">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="U18" t="str">
-        <f t="shared" si="6"/>
-        <v>172.16.10.6</v>
-      </c>
-      <c r="V18" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="W18" t="s">
-        <v>63</v>
-      </c>
-      <c r="X18" t="s">
-        <v>85</v>
+        <f t="shared" si="4"/>
+        <v>172.16.10.54</v>
       </c>
       <c r="Z18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="16"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
@@ -5761,29 +6084,20 @@
         <v>16</v>
       </c>
       <c r="S19">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T19">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="U19" t="str">
-        <f t="shared" si="6"/>
-        <v>172.16.20.2</v>
-      </c>
-      <c r="V19" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="W19" t="s">
-        <v>64</v>
-      </c>
-      <c r="X19" t="s">
-        <v>61</v>
+        <f t="shared" si="4"/>
+        <v>172.16.10.55</v>
       </c>
       <c r="Z19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="16"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
@@ -5800,29 +6114,20 @@
         <v>16</v>
       </c>
       <c r="S20">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T20">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="U20" t="str">
-        <f t="shared" si="6"/>
-        <v>172.16.20.1</v>
-      </c>
-      <c r="V20" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="W20" t="s">
-        <v>64</v>
-      </c>
-      <c r="X20" t="s">
-        <v>86</v>
+        <f t="shared" si="4"/>
+        <v>172.16.10.56</v>
       </c>
       <c r="Z20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="16"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
@@ -5842,17 +6147,17 @@
         <v>10</v>
       </c>
       <c r="T21">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="U21" t="str">
-        <f t="shared" si="6"/>
-        <v>172.16.10.51</v>
+        <f t="shared" si="4"/>
+        <v>172.16.10.57</v>
       </c>
       <c r="Z21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="16"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
@@ -5872,17 +6177,17 @@
         <v>10</v>
       </c>
       <c r="T22">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="U22" t="str">
-        <f t="shared" ref="U22:U70" si="7">Q22&amp;"."&amp;R22&amp;"."&amp;S22&amp;"."&amp;T22</f>
-        <v>172.16.10.52</v>
+        <f t="shared" si="4"/>
+        <v>172.16.10.58</v>
       </c>
       <c r="Z22" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="16"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
@@ -5902,17 +6207,17 @@
         <v>10</v>
       </c>
       <c r="T23">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="U23" t="str">
-        <f t="shared" si="7"/>
-        <v>172.16.10.53</v>
+        <f t="shared" si="4"/>
+        <v>172.16.10.59</v>
       </c>
       <c r="Z23" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="16"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
@@ -5932,17 +6237,17 @@
         <v>10</v>
       </c>
       <c r="T24">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="U24" t="str">
-        <f t="shared" si="7"/>
-        <v>172.16.10.54</v>
+        <f t="shared" si="4"/>
+        <v>172.16.10.60</v>
       </c>
       <c r="Z24" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="16"/>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
@@ -5962,17 +6267,17 @@
         <v>10</v>
       </c>
       <c r="T25">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="U25" t="str">
-        <f t="shared" si="7"/>
-        <v>172.16.10.55</v>
+        <f t="shared" si="4"/>
+        <v>172.16.10.61</v>
       </c>
       <c r="Z25" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="16"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
@@ -5992,17 +6297,17 @@
         <v>10</v>
       </c>
       <c r="T26">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="U26" t="str">
-        <f t="shared" si="7"/>
-        <v>172.16.10.56</v>
+        <f t="shared" si="4"/>
+        <v>172.16.10.62</v>
       </c>
       <c r="Z26" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="16"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
@@ -6022,17 +6327,17 @@
         <v>10</v>
       </c>
       <c r="T27">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="U27" t="str">
-        <f t="shared" si="7"/>
-        <v>172.16.10.57</v>
+        <f t="shared" si="4"/>
+        <v>172.16.10.63</v>
       </c>
       <c r="Z27" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="16"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
@@ -6052,17 +6357,17 @@
         <v>10</v>
       </c>
       <c r="T28">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="U28" t="str">
-        <f t="shared" si="7"/>
-        <v>172.16.10.58</v>
+        <f t="shared" si="4"/>
+        <v>172.16.10.64</v>
       </c>
       <c r="Z28" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="16"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
@@ -6082,17 +6387,17 @@
         <v>10</v>
       </c>
       <c r="T29">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="U29" t="str">
-        <f t="shared" si="7"/>
-        <v>172.16.10.59</v>
+        <f t="shared" si="4"/>
+        <v>172.16.10.65</v>
       </c>
       <c r="Z29" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="16"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -6112,17 +6417,17 @@
         <v>10</v>
       </c>
       <c r="T30">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="U30" t="str">
-        <f t="shared" si="7"/>
-        <v>172.16.10.60</v>
+        <f t="shared" si="4"/>
+        <v>172.16.10.66</v>
       </c>
       <c r="Z30" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="16"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
@@ -6142,17 +6447,17 @@
         <v>10</v>
       </c>
       <c r="T31">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="U31" t="str">
-        <f t="shared" si="7"/>
-        <v>172.16.10.61</v>
+        <f t="shared" si="4"/>
+        <v>172.16.10.67</v>
       </c>
       <c r="Z31" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" s="16"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -6172,17 +6477,17 @@
         <v>10</v>
       </c>
       <c r="T32">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="U32" t="str">
-        <f t="shared" si="7"/>
-        <v>172.16.10.62</v>
+        <f t="shared" si="4"/>
+        <v>172.16.10.68</v>
       </c>
       <c r="Z32" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33" s="16"/>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
@@ -6202,17 +6507,17 @@
         <v>10</v>
       </c>
       <c r="T33">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="U33" t="str">
-        <f t="shared" si="7"/>
-        <v>172.16.10.63</v>
+        <f t="shared" si="4"/>
+        <v>172.16.10.69</v>
       </c>
       <c r="Z33" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" s="16"/>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
@@ -6232,17 +6537,17 @@
         <v>10</v>
       </c>
       <c r="T34">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="U34" t="str">
-        <f t="shared" si="7"/>
-        <v>172.16.10.64</v>
+        <f t="shared" si="4"/>
+        <v>172.16.10.70</v>
       </c>
       <c r="Z34" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" s="16"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
@@ -6262,17 +6567,17 @@
         <v>10</v>
       </c>
       <c r="T35">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="U35" t="str">
-        <f t="shared" si="7"/>
-        <v>172.16.10.65</v>
+        <f t="shared" si="4"/>
+        <v>172.16.10.71</v>
       </c>
       <c r="Z35" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36" s="16"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
@@ -6292,17 +6597,17 @@
         <v>10</v>
       </c>
       <c r="T36">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="U36" t="str">
-        <f t="shared" si="7"/>
-        <v>172.16.10.66</v>
+        <f t="shared" si="4"/>
+        <v>172.16.10.72</v>
       </c>
       <c r="Z36" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37" s="16"/>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
@@ -6322,17 +6627,17 @@
         <v>10</v>
       </c>
       <c r="T37">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="U37" t="str">
-        <f t="shared" si="7"/>
-        <v>172.16.10.67</v>
+        <f t="shared" si="4"/>
+        <v>172.16.10.73</v>
       </c>
       <c r="Z37" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38" s="16"/>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
@@ -6352,17 +6657,17 @@
         <v>10</v>
       </c>
       <c r="T38">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="U38" t="str">
-        <f t="shared" si="7"/>
-        <v>172.16.10.68</v>
+        <f t="shared" si="4"/>
+        <v>172.16.10.74</v>
       </c>
       <c r="Z38" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39" s="16"/>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
@@ -6382,17 +6687,17 @@
         <v>10</v>
       </c>
       <c r="T39">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="U39" t="str">
-        <f t="shared" si="7"/>
-        <v>172.16.10.69</v>
+        <f t="shared" si="4"/>
+        <v>172.16.10.75</v>
       </c>
       <c r="Z39" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40" s="16"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
@@ -6412,17 +6717,17 @@
         <v>10</v>
       </c>
       <c r="T40">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="U40" t="str">
-        <f t="shared" si="7"/>
-        <v>172.16.10.70</v>
+        <f t="shared" si="4"/>
+        <v>172.16.10.76</v>
       </c>
       <c r="Z40" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41" s="16"/>
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
@@ -6442,17 +6747,17 @@
         <v>10</v>
       </c>
       <c r="T41">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="U41" t="str">
-        <f t="shared" si="7"/>
-        <v>172.16.10.71</v>
+        <f t="shared" si="4"/>
+        <v>172.16.10.77</v>
       </c>
       <c r="Z41" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42" s="16"/>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
@@ -6472,38 +6777,26 @@
         <v>10</v>
       </c>
       <c r="T42">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="U42" t="str">
-        <f t="shared" si="7"/>
-        <v>172.16.10.72</v>
+        <f t="shared" si="4"/>
+        <v>172.16.10.78</v>
       </c>
       <c r="Z42" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43" s="16"/>
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
       <c r="D43" s="18"/>
       <c r="E43" s="17"/>
-      <c r="G43" s="23">
-        <f t="shared" ref="G43:G74" si="8">COUNTIFS($S:$S,$C43,$Z:$Z,"static")</f>
-        <v>1</v>
-      </c>
-      <c r="H43" s="23">
-        <f t="shared" ref="H43:H74" si="9">COUNTIFS($S:$S,$C43,$Z:$Z,"DHCP")</f>
-        <v>0</v>
-      </c>
-      <c r="I43" s="22">
-        <f t="shared" ref="I43:I74" si="10">COUNTIFS($S:$S,$C43,$Z:$Z,"reserve")</f>
-        <v>0</v>
-      </c>
-      <c r="J43" s="22">
-        <f t="shared" ref="J43:J74" si="11">COUNTIFS($S:$S,$C42+1+1+1,$T:$T,"&lt;255")</f>
-        <v>0</v>
-      </c>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
       <c r="Q43">
         <v>172</v>
       </c>
@@ -6514,38 +6807,26 @@
         <v>10</v>
       </c>
       <c r="T43">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="U43" t="str">
-        <f t="shared" si="7"/>
-        <v>172.16.10.73</v>
+        <f t="shared" si="4"/>
+        <v>172.16.10.79</v>
       </c>
       <c r="Z43" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44" s="16"/>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
       <c r="D44" s="18"/>
       <c r="E44" s="17"/>
-      <c r="G44" s="23">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="H44" s="23">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="22">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J44" s="22">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
       <c r="Q44">
         <v>172</v>
       </c>
@@ -6556,38 +6837,26 @@
         <v>10</v>
       </c>
       <c r="T44">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="U44" t="str">
-        <f t="shared" si="7"/>
-        <v>172.16.10.74</v>
+        <f t="shared" si="4"/>
+        <v>172.16.10.80</v>
       </c>
       <c r="Z44" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45" s="16"/>
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
       <c r="D45" s="18"/>
       <c r="E45" s="17"/>
-      <c r="G45" s="23">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="H45" s="23">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I45" s="22">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J45" s="22">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
       <c r="Q45">
         <v>172</v>
       </c>
@@ -6598,38 +6867,26 @@
         <v>10</v>
       </c>
       <c r="T45">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="U45" t="str">
-        <f t="shared" si="7"/>
-        <v>172.16.10.75</v>
+        <f t="shared" si="4"/>
+        <v>172.16.10.81</v>
       </c>
       <c r="Z45" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46" s="16"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
       <c r="D46" s="18"/>
       <c r="E46" s="17"/>
-      <c r="G46" s="23">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="H46" s="23">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I46" s="22">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J46" s="22">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
       <c r="Q46">
         <v>172</v>
       </c>
@@ -6640,38 +6897,26 @@
         <v>10</v>
       </c>
       <c r="T46">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="U46" t="str">
-        <f t="shared" si="7"/>
-        <v>172.16.10.76</v>
+        <f t="shared" si="4"/>
+        <v>172.16.10.82</v>
       </c>
       <c r="Z46" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47" s="16"/>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
       <c r="D47" s="18"/>
       <c r="E47" s="17"/>
-      <c r="G47" s="23">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="H47" s="23">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I47" s="22">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J47" s="22">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
       <c r="Q47">
         <v>172</v>
       </c>
@@ -6682,38 +6927,26 @@
         <v>10</v>
       </c>
       <c r="T47">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="U47" t="str">
-        <f t="shared" si="7"/>
-        <v>172.16.10.77</v>
+        <f t="shared" si="4"/>
+        <v>172.16.10.83</v>
       </c>
       <c r="Z47" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A48" s="16"/>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
       <c r="D48" s="18"/>
       <c r="E48" s="17"/>
-      <c r="G48" s="23">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="H48" s="23">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I48" s="22">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J48" s="22">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
       <c r="Q48">
         <v>172</v>
       </c>
@@ -6724,38 +6957,26 @@
         <v>10</v>
       </c>
       <c r="T48">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="U48" t="str">
-        <f t="shared" si="7"/>
-        <v>172.16.10.78</v>
+        <f t="shared" si="4"/>
+        <v>172.16.10.84</v>
       </c>
       <c r="Z48" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A49" s="16"/>
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
       <c r="D49" s="18"/>
       <c r="E49" s="17"/>
-      <c r="G49" s="23">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="H49" s="23">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I49" s="22">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J49" s="22">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
       <c r="Q49">
         <v>172</v>
       </c>
@@ -6766,38 +6987,26 @@
         <v>10</v>
       </c>
       <c r="T49">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="U49" t="str">
-        <f t="shared" si="7"/>
-        <v>172.16.10.79</v>
+        <f t="shared" si="4"/>
+        <v>172.16.10.85</v>
       </c>
       <c r="Z49" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A50" s="16"/>
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
       <c r="D50" s="18"/>
       <c r="E50" s="17"/>
-      <c r="G50" s="23">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="H50" s="23">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I50" s="22">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J50" s="22">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
       <c r="Q50">
         <v>172</v>
       </c>
@@ -6808,38 +7017,26 @@
         <v>10</v>
       </c>
       <c r="T50">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="U50" t="str">
-        <f t="shared" si="7"/>
-        <v>172.16.10.80</v>
+        <f t="shared" si="4"/>
+        <v>172.16.10.86</v>
       </c>
       <c r="Z50" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A51" s="16"/>
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
       <c r="D51" s="18"/>
       <c r="E51" s="17"/>
-      <c r="G51" s="23">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="H51" s="23">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I51" s="22">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J51" s="22">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
       <c r="Q51">
         <v>172</v>
       </c>
@@ -6850,38 +7047,26 @@
         <v>10</v>
       </c>
       <c r="T51">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="U51" t="str">
-        <f t="shared" si="7"/>
-        <v>172.16.10.81</v>
+        <f t="shared" si="4"/>
+        <v>172.16.10.87</v>
       </c>
       <c r="Z51" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A52" s="16"/>
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
       <c r="D52" s="18"/>
       <c r="E52" s="17"/>
-      <c r="G52" s="23">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="H52" s="23">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I52" s="22">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J52" s="22">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
       <c r="Q52">
         <v>172</v>
       </c>
@@ -6892,38 +7077,26 @@
         <v>10</v>
       </c>
       <c r="T52">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="U52" t="str">
-        <f t="shared" si="7"/>
-        <v>172.16.10.82</v>
+        <f t="shared" si="4"/>
+        <v>172.16.10.88</v>
       </c>
       <c r="Z52" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A53" s="16"/>
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
       <c r="D53" s="18"/>
       <c r="E53" s="17"/>
-      <c r="G53" s="23">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="H53" s="23">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I53" s="22">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J53" s="22">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
       <c r="Q53">
         <v>172</v>
       </c>
@@ -6934,38 +7107,26 @@
         <v>10</v>
       </c>
       <c r="T53">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="U53" t="str">
-        <f t="shared" si="7"/>
-        <v>172.16.10.83</v>
+        <f t="shared" si="4"/>
+        <v>172.16.10.89</v>
       </c>
       <c r="Z53" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A54" s="16"/>
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
       <c r="D54" s="18"/>
       <c r="E54" s="17"/>
-      <c r="G54" s="23">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="H54" s="23">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I54" s="22">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J54" s="22">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="22"/>
       <c r="Q54">
         <v>172</v>
       </c>
@@ -6976,38 +7137,26 @@
         <v>10</v>
       </c>
       <c r="T54">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="U54" t="str">
-        <f t="shared" si="7"/>
-        <v>172.16.10.84</v>
+        <f t="shared" si="4"/>
+        <v>172.16.10.90</v>
       </c>
       <c r="Z54" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A55" s="16"/>
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
       <c r="D55" s="18"/>
       <c r="E55" s="17"/>
-      <c r="G55" s="23">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="H55" s="23">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I55" s="22">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J55" s="22">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
       <c r="Q55">
         <v>172</v>
       </c>
@@ -7018,38 +7167,26 @@
         <v>10</v>
       </c>
       <c r="T55">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="U55" t="str">
-        <f t="shared" si="7"/>
-        <v>172.16.10.85</v>
+        <f t="shared" si="4"/>
+        <v>172.16.10.91</v>
       </c>
       <c r="Z55" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A56" s="16"/>
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
       <c r="D56" s="18"/>
       <c r="E56" s="17"/>
-      <c r="G56" s="23">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="H56" s="23">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I56" s="22">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J56" s="22">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
       <c r="Q56">
         <v>172</v>
       </c>
@@ -7060,38 +7197,26 @@
         <v>10</v>
       </c>
       <c r="T56">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="U56" t="str">
-        <f t="shared" si="7"/>
-        <v>172.16.10.86</v>
+        <f t="shared" si="4"/>
+        <v>172.16.10.92</v>
       </c>
       <c r="Z56" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A57" s="16"/>
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
       <c r="D57" s="18"/>
       <c r="E57" s="17"/>
-      <c r="G57" s="23">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="H57" s="23">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I57" s="22">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J57" s="22">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
       <c r="Q57">
         <v>172</v>
       </c>
@@ -7102,38 +7227,26 @@
         <v>10</v>
       </c>
       <c r="T57">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="U57" t="str">
-        <f t="shared" si="7"/>
-        <v>172.16.10.87</v>
+        <f t="shared" si="4"/>
+        <v>172.16.10.93</v>
       </c>
       <c r="Z57" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A58" s="16"/>
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
       <c r="D58" s="18"/>
       <c r="E58" s="17"/>
-      <c r="G58" s="23">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="H58" s="23">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I58" s="22">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J58" s="22">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="G58" s="23"/>
+      <c r="H58" s="23"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
       <c r="Q58">
         <v>172</v>
       </c>
@@ -7144,38 +7257,26 @@
         <v>10</v>
       </c>
       <c r="T58">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="U58" t="str">
-        <f t="shared" si="7"/>
-        <v>172.16.10.88</v>
+        <f t="shared" si="4"/>
+        <v>172.16.10.94</v>
       </c>
       <c r="Z58" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A59" s="16"/>
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
       <c r="D59" s="18"/>
       <c r="E59" s="17"/>
-      <c r="G59" s="23">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="H59" s="23">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I59" s="22">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J59" s="22">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="G59" s="23"/>
+      <c r="H59" s="23"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="22"/>
       <c r="Q59">
         <v>172</v>
       </c>
@@ -7186,38 +7287,26 @@
         <v>10</v>
       </c>
       <c r="T59">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="U59" t="str">
-        <f t="shared" si="7"/>
-        <v>172.16.10.89</v>
+        <f t="shared" si="4"/>
+        <v>172.16.10.95</v>
       </c>
       <c r="Z59" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A60" s="16"/>
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
       <c r="D60" s="18"/>
       <c r="E60" s="17"/>
-      <c r="G60" s="23">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="H60" s="23">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I60" s="22">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J60" s="22">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="G60" s="23"/>
+      <c r="H60" s="23"/>
+      <c r="I60" s="22"/>
+      <c r="J60" s="22"/>
       <c r="Q60">
         <v>172</v>
       </c>
@@ -7228,38 +7317,26 @@
         <v>10</v>
       </c>
       <c r="T60">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="U60" t="str">
-        <f t="shared" si="7"/>
-        <v>172.16.10.90</v>
+        <f t="shared" si="4"/>
+        <v>172.16.10.96</v>
       </c>
       <c r="Z60" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A61" s="16"/>
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
       <c r="D61" s="18"/>
       <c r="E61" s="17"/>
-      <c r="G61" s="23">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="H61" s="23">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I61" s="22">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J61" s="22">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23"/>
+      <c r="I61" s="22"/>
+      <c r="J61" s="22"/>
       <c r="Q61">
         <v>172</v>
       </c>
@@ -7270,38 +7347,27 @@
         <v>10</v>
       </c>
       <c r="T61">
-        <v>91</v>
+        <f>T60+1</f>
+        <v>97</v>
       </c>
       <c r="U61" t="str">
-        <f t="shared" si="7"/>
-        <v>172.16.10.91</v>
+        <f t="shared" si="4"/>
+        <v>172.16.10.97</v>
       </c>
       <c r="Z61" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A62" s="16"/>
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
       <c r="D62" s="18"/>
       <c r="E62" s="17"/>
-      <c r="G62" s="23">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="H62" s="23">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I62" s="22">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J62" s="22">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="G62" s="23"/>
+      <c r="H62" s="23"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="22"/>
       <c r="Q62">
         <v>172</v>
       </c>
@@ -7312,38 +7378,27 @@
         <v>10</v>
       </c>
       <c r="T62">
-        <v>92</v>
+        <f t="shared" ref="T62:T64" si="5">T61+1</f>
+        <v>98</v>
       </c>
       <c r="U62" t="str">
-        <f t="shared" si="7"/>
-        <v>172.16.10.92</v>
+        <f t="shared" si="4"/>
+        <v>172.16.10.98</v>
       </c>
       <c r="Z62" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A63" s="16"/>
       <c r="B63" s="17"/>
       <c r="C63" s="17"/>
       <c r="D63" s="18"/>
       <c r="E63" s="17"/>
-      <c r="G63" s="23">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="H63" s="23">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I63" s="22">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J63" s="22">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="G63" s="23"/>
+      <c r="H63" s="23"/>
+      <c r="I63" s="22"/>
+      <c r="J63" s="22"/>
       <c r="Q63">
         <v>172</v>
       </c>
@@ -7354,38 +7409,27 @@
         <v>10</v>
       </c>
       <c r="T63">
-        <v>93</v>
+        <f t="shared" si="5"/>
+        <v>99</v>
       </c>
       <c r="U63" t="str">
-        <f t="shared" si="7"/>
-        <v>172.16.10.93</v>
+        <f t="shared" si="4"/>
+        <v>172.16.10.99</v>
       </c>
       <c r="Z63" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A64" s="16"/>
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
       <c r="D64" s="18"/>
       <c r="E64" s="17"/>
-      <c r="G64" s="23">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="H64" s="23">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I64" s="22">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J64" s="22">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="G64" s="23"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="22"/>
+      <c r="J64" s="22"/>
       <c r="Q64">
         <v>172</v>
       </c>
@@ -7396,38 +7440,27 @@
         <v>10</v>
       </c>
       <c r="T64">
-        <v>94</v>
+        <f t="shared" si="5"/>
+        <v>100</v>
       </c>
       <c r="U64" t="str">
-        <f t="shared" si="7"/>
-        <v>172.16.10.94</v>
+        <f t="shared" si="4"/>
+        <v>172.16.10.100</v>
       </c>
       <c r="Z64" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A65" s="16"/>
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
       <c r="D65" s="18"/>
       <c r="E65" s="17"/>
-      <c r="G65" s="23">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="H65" s="23">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I65" s="22">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J65" s="22">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="G65" s="23"/>
+      <c r="H65" s="23"/>
+      <c r="I65" s="22"/>
+      <c r="J65" s="22"/>
       <c r="Q65">
         <v>172</v>
       </c>
@@ -7435,41 +7468,29 @@
         <v>16</v>
       </c>
       <c r="S65">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T65">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="U65" t="str">
-        <f t="shared" si="7"/>
-        <v>172.16.10.95</v>
+        <f>Q65&amp;"."&amp;R65&amp;"."&amp;S65&amp;"."&amp;T65</f>
+        <v>172.16.20.51</v>
       </c>
       <c r="Z65" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A66" s="16"/>
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
       <c r="D66" s="18"/>
       <c r="E66" s="17"/>
-      <c r="G66" s="23">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="H66" s="23">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I66" s="22">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J66" s="22">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="22"/>
+      <c r="J66" s="22"/>
       <c r="Q66">
         <v>172</v>
       </c>
@@ -7477,41 +7498,29 @@
         <v>16</v>
       </c>
       <c r="S66">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T66">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="U66" t="str">
-        <f t="shared" si="7"/>
-        <v>172.16.10.96</v>
+        <f t="shared" ref="U66:U114" si="6">Q66&amp;"."&amp;R66&amp;"."&amp;S66&amp;"."&amp;T66</f>
+        <v>172.16.20.52</v>
       </c>
       <c r="Z66" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A67" s="16"/>
       <c r="B67" s="17"/>
       <c r="C67" s="17"/>
       <c r="D67" s="18"/>
       <c r="E67" s="17"/>
-      <c r="G67" s="23">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="H67" s="23">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I67" s="22">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J67" s="22">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="G67" s="23"/>
+      <c r="H67" s="23"/>
+      <c r="I67" s="22"/>
+      <c r="J67" s="22"/>
       <c r="Q67">
         <v>172</v>
       </c>
@@ -7519,42 +7528,29 @@
         <v>16</v>
       </c>
       <c r="S67">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T67">
-        <f>T66+1</f>
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" si="7"/>
-        <v>172.16.10.97</v>
+        <f t="shared" si="6"/>
+        <v>172.16.20.53</v>
       </c>
       <c r="Z67" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A68" s="16"/>
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
       <c r="D68" s="18"/>
       <c r="E68" s="17"/>
-      <c r="G68" s="23">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="H68" s="23">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I68" s="22">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J68" s="22">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="G68" s="23"/>
+      <c r="H68" s="23"/>
+      <c r="I68" s="22"/>
+      <c r="J68" s="22"/>
       <c r="Q68">
         <v>172</v>
       </c>
@@ -7562,42 +7558,29 @@
         <v>16</v>
       </c>
       <c r="S68">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T68">
-        <f t="shared" ref="T68:T70" si="12">T67+1</f>
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="U68" t="str">
-        <f t="shared" si="7"/>
-        <v>172.16.10.98</v>
+        <f t="shared" si="6"/>
+        <v>172.16.20.54</v>
       </c>
       <c r="Z68" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A69" s="16"/>
       <c r="B69" s="17"/>
       <c r="C69" s="17"/>
       <c r="D69" s="18"/>
       <c r="E69" s="17"/>
-      <c r="G69" s="23">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="H69" s="23">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I69" s="22">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J69" s="22">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="G69" s="23"/>
+      <c r="H69" s="23"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="22"/>
       <c r="Q69">
         <v>172</v>
       </c>
@@ -7605,42 +7588,29 @@
         <v>16</v>
       </c>
       <c r="S69">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T69">
-        <f t="shared" si="12"/>
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="U69" t="str">
-        <f t="shared" si="7"/>
-        <v>172.16.10.99</v>
+        <f t="shared" si="6"/>
+        <v>172.16.20.55</v>
       </c>
       <c r="Z69" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A70" s="16"/>
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
       <c r="D70" s="18"/>
       <c r="E70" s="17"/>
-      <c r="G70" s="23">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="H70" s="23">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I70" s="22">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J70" s="22">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="G70" s="23"/>
+      <c r="H70" s="23"/>
+      <c r="I70" s="22"/>
+      <c r="J70" s="22"/>
       <c r="Q70">
         <v>172</v>
       </c>
@@ -7648,42 +7618,29 @@
         <v>16</v>
       </c>
       <c r="S70">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T70">
-        <f t="shared" si="12"/>
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="U70" t="str">
-        <f t="shared" si="7"/>
-        <v>172.16.10.100</v>
+        <f t="shared" si="6"/>
+        <v>172.16.20.56</v>
       </c>
       <c r="Z70" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A71" s="16"/>
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
       <c r="D71" s="18"/>
       <c r="E71" s="17"/>
-      <c r="G71" s="23">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="H71" s="23">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I71" s="22">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J71" s="22">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="G71" s="23"/>
+      <c r="H71" s="23"/>
+      <c r="I71" s="22"/>
+      <c r="J71" s="22"/>
       <c r="Q71">
         <v>172</v>
       </c>
@@ -7694,38 +7651,26 @@
         <v>20</v>
       </c>
       <c r="T71">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="U71" t="str">
-        <f>Q71&amp;"."&amp;R71&amp;"."&amp;S71&amp;"."&amp;T71</f>
-        <v>172.16.20.51</v>
+        <f t="shared" si="6"/>
+        <v>172.16.20.57</v>
       </c>
       <c r="Z71" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A72" s="16"/>
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
       <c r="D72" s="18"/>
       <c r="E72" s="17"/>
-      <c r="G72" s="23">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="H72" s="23">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I72" s="22">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J72" s="22">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="G72" s="23"/>
+      <c r="H72" s="23"/>
+      <c r="I72" s="22"/>
+      <c r="J72" s="22"/>
       <c r="Q72">
         <v>172</v>
       </c>
@@ -7736,38 +7681,26 @@
         <v>20</v>
       </c>
       <c r="T72">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="U72" t="str">
-        <f t="shared" ref="U72:U120" si="13">Q72&amp;"."&amp;R72&amp;"."&amp;S72&amp;"."&amp;T72</f>
-        <v>172.16.20.52</v>
+        <f t="shared" si="6"/>
+        <v>172.16.20.58</v>
       </c>
       <c r="Z72" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="73" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="19"/>
       <c r="B73" s="20"/>
       <c r="C73" s="20"/>
       <c r="D73" s="21"/>
       <c r="E73" s="17"/>
-      <c r="G73" s="23">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="H73" s="23">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I73" s="22">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J73" s="22">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="G73" s="23"/>
+      <c r="H73" s="23"/>
+      <c r="I73" s="22"/>
+      <c r="J73" s="22"/>
       <c r="Q73">
         <v>172</v>
       </c>
@@ -7778,33 +7711,21 @@
         <v>20</v>
       </c>
       <c r="T73">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="U73" t="str">
-        <f t="shared" si="13"/>
-        <v>172.16.20.53</v>
+        <f t="shared" si="6"/>
+        <v>172.16.20.59</v>
       </c>
       <c r="Z73" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="G74" s="23">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="H74" s="23">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I74" s="22">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J74" s="22">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="G74" s="23"/>
+      <c r="H74" s="23"/>
+      <c r="I74" s="22"/>
+      <c r="J74" s="22"/>
       <c r="Q74">
         <v>172</v>
       </c>
@@ -7815,17 +7736,17 @@
         <v>20</v>
       </c>
       <c r="T74">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="U74" t="str">
-        <f t="shared" si="13"/>
-        <v>172.16.20.54</v>
+        <f t="shared" si="6"/>
+        <v>172.16.20.60</v>
       </c>
       <c r="Z74" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
       <c r="Q75">
         <v>172</v>
       </c>
@@ -7836,17 +7757,17 @@
         <v>20</v>
       </c>
       <c r="T75">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="U75" t="str">
-        <f t="shared" si="13"/>
-        <v>172.16.20.55</v>
+        <f t="shared" si="6"/>
+        <v>172.16.20.61</v>
       </c>
       <c r="Z75" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
       <c r="Q76">
         <v>172</v>
       </c>
@@ -7857,17 +7778,17 @@
         <v>20</v>
       </c>
       <c r="T76">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="U76" t="str">
-        <f t="shared" si="13"/>
-        <v>172.16.20.56</v>
+        <f t="shared" si="6"/>
+        <v>172.16.20.62</v>
       </c>
       <c r="Z76" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
       <c r="Q77">
         <v>172</v>
       </c>
@@ -7878,17 +7799,17 @@
         <v>20</v>
       </c>
       <c r="T77">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="U77" t="str">
-        <f t="shared" si="13"/>
-        <v>172.16.20.57</v>
+        <f t="shared" si="6"/>
+        <v>172.16.20.63</v>
       </c>
       <c r="Z77" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
       <c r="Q78">
         <v>172</v>
       </c>
@@ -7899,17 +7820,17 @@
         <v>20</v>
       </c>
       <c r="T78">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="U78" t="str">
-        <f t="shared" si="13"/>
-        <v>172.16.20.58</v>
+        <f t="shared" si="6"/>
+        <v>172.16.20.64</v>
       </c>
       <c r="Z78" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
       <c r="Q79">
         <v>172</v>
       </c>
@@ -7920,17 +7841,17 @@
         <v>20</v>
       </c>
       <c r="T79">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="U79" t="str">
-        <f t="shared" si="13"/>
-        <v>172.16.20.59</v>
+        <f t="shared" si="6"/>
+        <v>172.16.20.65</v>
       </c>
       <c r="Z79" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
       <c r="Q80">
         <v>172</v>
       </c>
@@ -7941,17 +7862,17 @@
         <v>20</v>
       </c>
       <c r="T80">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="U80" t="str">
-        <f t="shared" si="13"/>
-        <v>172.16.20.60</v>
+        <f t="shared" si="6"/>
+        <v>172.16.20.66</v>
       </c>
       <c r="Z80" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="81" spans="17:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="81" spans="17:26" x14ac:dyDescent="0.3">
       <c r="Q81">
         <v>172</v>
       </c>
@@ -7962,17 +7883,17 @@
         <v>20</v>
       </c>
       <c r="T81">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="U81" t="str">
-        <f t="shared" si="13"/>
-        <v>172.16.20.61</v>
+        <f t="shared" si="6"/>
+        <v>172.16.20.67</v>
       </c>
       <c r="Z81" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="82" spans="17:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="82" spans="17:26" x14ac:dyDescent="0.3">
       <c r="Q82">
         <v>172</v>
       </c>
@@ -7983,17 +7904,17 @@
         <v>20</v>
       </c>
       <c r="T82">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="U82" t="str">
-        <f t="shared" si="13"/>
-        <v>172.16.20.62</v>
+        <f t="shared" si="6"/>
+        <v>172.16.20.68</v>
       </c>
       <c r="Z82" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="83" spans="17:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="83" spans="17:26" x14ac:dyDescent="0.3">
       <c r="Q83">
         <v>172</v>
       </c>
@@ -8004,17 +7925,17 @@
         <v>20</v>
       </c>
       <c r="T83">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="U83" t="str">
-        <f t="shared" si="13"/>
-        <v>172.16.20.63</v>
+        <f t="shared" si="6"/>
+        <v>172.16.20.69</v>
       </c>
       <c r="Z83" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="84" spans="17:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="84" spans="17:26" x14ac:dyDescent="0.3">
       <c r="Q84">
         <v>172</v>
       </c>
@@ -8025,17 +7946,17 @@
         <v>20</v>
       </c>
       <c r="T84">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="U84" t="str">
-        <f t="shared" si="13"/>
-        <v>172.16.20.64</v>
+        <f t="shared" si="6"/>
+        <v>172.16.20.70</v>
       </c>
       <c r="Z84" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="85" spans="17:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85" spans="17:26" x14ac:dyDescent="0.3">
       <c r="Q85">
         <v>172</v>
       </c>
@@ -8046,17 +7967,17 @@
         <v>20</v>
       </c>
       <c r="T85">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="U85" t="str">
-        <f t="shared" si="13"/>
-        <v>172.16.20.65</v>
+        <f t="shared" si="6"/>
+        <v>172.16.20.71</v>
       </c>
       <c r="Z85" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="86" spans="17:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="17:26" x14ac:dyDescent="0.3">
       <c r="Q86">
         <v>172</v>
       </c>
@@ -8067,17 +7988,17 @@
         <v>20</v>
       </c>
       <c r="T86">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="U86" t="str">
-        <f t="shared" si="13"/>
-        <v>172.16.20.66</v>
+        <f t="shared" si="6"/>
+        <v>172.16.20.72</v>
       </c>
       <c r="Z86" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="87" spans="17:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="87" spans="17:26" x14ac:dyDescent="0.3">
       <c r="Q87">
         <v>172</v>
       </c>
@@ -8088,17 +8009,17 @@
         <v>20</v>
       </c>
       <c r="T87">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="U87" t="str">
-        <f t="shared" si="13"/>
-        <v>172.16.20.67</v>
+        <f t="shared" si="6"/>
+        <v>172.16.20.73</v>
       </c>
       <c r="Z87" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="88" spans="17:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="17:26" x14ac:dyDescent="0.3">
       <c r="Q88">
         <v>172</v>
       </c>
@@ -8109,17 +8030,17 @@
         <v>20</v>
       </c>
       <c r="T88">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="U88" t="str">
-        <f t="shared" si="13"/>
-        <v>172.16.20.68</v>
+        <f t="shared" si="6"/>
+        <v>172.16.20.74</v>
       </c>
       <c r="Z88" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="89" spans="17:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="17:26" x14ac:dyDescent="0.3">
       <c r="Q89">
         <v>172</v>
       </c>
@@ -8130,17 +8051,17 @@
         <v>20</v>
       </c>
       <c r="T89">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="U89" t="str">
-        <f t="shared" si="13"/>
-        <v>172.16.20.69</v>
+        <f t="shared" si="6"/>
+        <v>172.16.20.75</v>
       </c>
       <c r="Z89" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="90" spans="17:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="17:26" x14ac:dyDescent="0.3">
       <c r="Q90">
         <v>172</v>
       </c>
@@ -8151,17 +8072,17 @@
         <v>20</v>
       </c>
       <c r="T90">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="U90" t="str">
-        <f t="shared" si="13"/>
-        <v>172.16.20.70</v>
+        <f t="shared" si="6"/>
+        <v>172.16.20.76</v>
       </c>
       <c r="Z90" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="17:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="91" spans="17:26" x14ac:dyDescent="0.3">
       <c r="Q91">
         <v>172</v>
       </c>
@@ -8172,17 +8093,17 @@
         <v>20</v>
       </c>
       <c r="T91">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="U91" t="str">
-        <f t="shared" si="13"/>
-        <v>172.16.20.71</v>
+        <f t="shared" si="6"/>
+        <v>172.16.20.77</v>
       </c>
       <c r="Z91" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="92" spans="17:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="92" spans="17:26" x14ac:dyDescent="0.3">
       <c r="Q92">
         <v>172</v>
       </c>
@@ -8193,17 +8114,17 @@
         <v>20</v>
       </c>
       <c r="T92">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="U92" t="str">
-        <f t="shared" si="13"/>
-        <v>172.16.20.72</v>
+        <f t="shared" si="6"/>
+        <v>172.16.20.78</v>
       </c>
       <c r="Z92" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="93" spans="17:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="93" spans="17:26" x14ac:dyDescent="0.3">
       <c r="Q93">
         <v>172</v>
       </c>
@@ -8214,17 +8135,17 @@
         <v>20</v>
       </c>
       <c r="T93">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="U93" t="str">
-        <f t="shared" si="13"/>
-        <v>172.16.20.73</v>
+        <f t="shared" si="6"/>
+        <v>172.16.20.79</v>
       </c>
       <c r="Z93" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="94" spans="17:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="94" spans="17:26" x14ac:dyDescent="0.3">
       <c r="Q94">
         <v>172</v>
       </c>
@@ -8235,17 +8156,17 @@
         <v>20</v>
       </c>
       <c r="T94">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="U94" t="str">
-        <f t="shared" si="13"/>
-        <v>172.16.20.74</v>
+        <f t="shared" si="6"/>
+        <v>172.16.20.80</v>
       </c>
       <c r="Z94" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="95" spans="17:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="95" spans="17:26" x14ac:dyDescent="0.3">
       <c r="Q95">
         <v>172</v>
       </c>
@@ -8256,17 +8177,17 @@
         <v>20</v>
       </c>
       <c r="T95">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="U95" t="str">
-        <f t="shared" si="13"/>
-        <v>172.16.20.75</v>
+        <f t="shared" si="6"/>
+        <v>172.16.20.81</v>
       </c>
       <c r="Z95" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="96" spans="17:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="96" spans="17:26" x14ac:dyDescent="0.3">
       <c r="Q96">
         <v>172</v>
       </c>
@@ -8277,17 +8198,17 @@
         <v>20</v>
       </c>
       <c r="T96">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="U96" t="str">
-        <f t="shared" si="13"/>
-        <v>172.16.20.76</v>
+        <f t="shared" si="6"/>
+        <v>172.16.20.82</v>
       </c>
       <c r="Z96" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="97" spans="17:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="97" spans="17:26" x14ac:dyDescent="0.3">
       <c r="Q97">
         <v>172</v>
       </c>
@@ -8298,17 +8219,17 @@
         <v>20</v>
       </c>
       <c r="T97">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="U97" t="str">
-        <f t="shared" si="13"/>
-        <v>172.16.20.77</v>
+        <f t="shared" si="6"/>
+        <v>172.16.20.83</v>
       </c>
       <c r="Z97" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="98" spans="17:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="98" spans="17:26" x14ac:dyDescent="0.3">
       <c r="Q98">
         <v>172</v>
       </c>
@@ -8319,17 +8240,17 @@
         <v>20</v>
       </c>
       <c r="T98">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="U98" t="str">
-        <f t="shared" si="13"/>
-        <v>172.16.20.78</v>
+        <f t="shared" si="6"/>
+        <v>172.16.20.84</v>
       </c>
       <c r="Z98" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="99" spans="17:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="99" spans="17:26" x14ac:dyDescent="0.3">
       <c r="Q99">
         <v>172</v>
       </c>
@@ -8340,17 +8261,17 @@
         <v>20</v>
       </c>
       <c r="T99">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="U99" t="str">
-        <f t="shared" si="13"/>
-        <v>172.16.20.79</v>
+        <f t="shared" si="6"/>
+        <v>172.16.20.85</v>
       </c>
       <c r="Z99" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="100" spans="17:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="100" spans="17:26" x14ac:dyDescent="0.3">
       <c r="Q100">
         <v>172</v>
       </c>
@@ -8361,17 +8282,17 @@
         <v>20</v>
       </c>
       <c r="T100">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="U100" t="str">
-        <f t="shared" si="13"/>
-        <v>172.16.20.80</v>
+        <f t="shared" si="6"/>
+        <v>172.16.20.86</v>
       </c>
       <c r="Z100" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="101" spans="17:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="101" spans="17:26" x14ac:dyDescent="0.3">
       <c r="Q101">
         <v>172</v>
       </c>
@@ -8382,17 +8303,17 @@
         <v>20</v>
       </c>
       <c r="T101">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="U101" t="str">
-        <f t="shared" si="13"/>
-        <v>172.16.20.81</v>
+        <f t="shared" si="6"/>
+        <v>172.16.20.87</v>
       </c>
       <c r="Z101" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="102" spans="17:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="102" spans="17:26" x14ac:dyDescent="0.3">
       <c r="Q102">
         <v>172</v>
       </c>
@@ -8403,17 +8324,17 @@
         <v>20</v>
       </c>
       <c r="T102">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="U102" t="str">
-        <f t="shared" si="13"/>
-        <v>172.16.20.82</v>
+        <f t="shared" si="6"/>
+        <v>172.16.20.88</v>
       </c>
       <c r="Z102" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="103" spans="17:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="103" spans="17:26" x14ac:dyDescent="0.3">
       <c r="Q103">
         <v>172</v>
       </c>
@@ -8424,17 +8345,17 @@
         <v>20</v>
       </c>
       <c r="T103">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="U103" t="str">
-        <f t="shared" si="13"/>
-        <v>172.16.20.83</v>
+        <f t="shared" si="6"/>
+        <v>172.16.20.89</v>
       </c>
       <c r="Z103" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="104" spans="17:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="104" spans="17:26" x14ac:dyDescent="0.3">
       <c r="Q104">
         <v>172</v>
       </c>
@@ -8445,17 +8366,17 @@
         <v>20</v>
       </c>
       <c r="T104">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="U104" t="str">
-        <f t="shared" si="13"/>
-        <v>172.16.20.84</v>
+        <f t="shared" si="6"/>
+        <v>172.16.20.90</v>
       </c>
       <c r="Z104" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="105" spans="17:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="105" spans="17:26" x14ac:dyDescent="0.3">
       <c r="Q105">
         <v>172</v>
       </c>
@@ -8466,17 +8387,17 @@
         <v>20</v>
       </c>
       <c r="T105">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="U105" t="str">
-        <f t="shared" si="13"/>
-        <v>172.16.20.85</v>
+        <f t="shared" si="6"/>
+        <v>172.16.20.91</v>
       </c>
       <c r="Z105" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="106" spans="17:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="106" spans="17:26" x14ac:dyDescent="0.3">
       <c r="Q106">
         <v>172</v>
       </c>
@@ -8487,17 +8408,17 @@
         <v>20</v>
       </c>
       <c r="T106">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="U106" t="str">
-        <f t="shared" si="13"/>
-        <v>172.16.20.86</v>
+        <f t="shared" si="6"/>
+        <v>172.16.20.92</v>
       </c>
       <c r="Z106" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="107" spans="17:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="107" spans="17:26" x14ac:dyDescent="0.3">
       <c r="Q107">
         <v>172</v>
       </c>
@@ -8508,17 +8429,17 @@
         <v>20</v>
       </c>
       <c r="T107">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="U107" t="str">
-        <f t="shared" si="13"/>
-        <v>172.16.20.87</v>
+        <f t="shared" si="6"/>
+        <v>172.16.20.93</v>
       </c>
       <c r="Z107" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="108" spans="17:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="108" spans="17:26" x14ac:dyDescent="0.3">
       <c r="Q108">
         <v>172</v>
       </c>
@@ -8529,17 +8450,17 @@
         <v>20</v>
       </c>
       <c r="T108">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="U108" t="str">
-        <f t="shared" si="13"/>
-        <v>172.16.20.88</v>
+        <f t="shared" si="6"/>
+        <v>172.16.20.94</v>
       </c>
       <c r="Z108" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="109" spans="17:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="109" spans="17:26" x14ac:dyDescent="0.3">
       <c r="Q109">
         <v>172</v>
       </c>
@@ -8550,17 +8471,17 @@
         <v>20</v>
       </c>
       <c r="T109">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="U109" t="str">
-        <f t="shared" si="13"/>
-        <v>172.16.20.89</v>
+        <f t="shared" si="6"/>
+        <v>172.16.20.95</v>
       </c>
       <c r="Z109" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="110" spans="17:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="110" spans="17:26" x14ac:dyDescent="0.3">
       <c r="Q110">
         <v>172</v>
       </c>
@@ -8571,17 +8492,17 @@
         <v>20</v>
       </c>
       <c r="T110">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="U110" t="str">
-        <f t="shared" si="13"/>
-        <v>172.16.20.90</v>
+        <f t="shared" si="6"/>
+        <v>172.16.20.96</v>
       </c>
       <c r="Z110" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="111" spans="17:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="111" spans="17:26" x14ac:dyDescent="0.3">
       <c r="Q111">
         <v>172</v>
       </c>
@@ -8592,17 +8513,18 @@
         <v>20</v>
       </c>
       <c r="T111">
-        <v>91</v>
+        <f>T110+1</f>
+        <v>97</v>
       </c>
       <c r="U111" t="str">
-        <f t="shared" si="13"/>
-        <v>172.16.20.91</v>
+        <f t="shared" si="6"/>
+        <v>172.16.20.97</v>
       </c>
       <c r="Z111" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="112" spans="17:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="112" spans="17:26" x14ac:dyDescent="0.3">
       <c r="Q112">
         <v>172</v>
       </c>
@@ -8613,17 +8535,18 @@
         <v>20</v>
       </c>
       <c r="T112">
-        <v>92</v>
+        <f t="shared" ref="T112:T114" si="7">T111+1</f>
+        <v>98</v>
       </c>
       <c r="U112" t="str">
-        <f t="shared" si="13"/>
-        <v>172.16.20.92</v>
+        <f t="shared" si="6"/>
+        <v>172.16.20.98</v>
       </c>
       <c r="Z112" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="113" spans="17:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="113" spans="17:26" x14ac:dyDescent="0.3">
       <c r="Q113">
         <v>172</v>
       </c>
@@ -8634,17 +8557,18 @@
         <v>20</v>
       </c>
       <c r="T113">
-        <v>93</v>
+        <f t="shared" si="7"/>
+        <v>99</v>
       </c>
       <c r="U113" t="str">
-        <f t="shared" si="13"/>
-        <v>172.16.20.93</v>
+        <f t="shared" si="6"/>
+        <v>172.16.20.99</v>
       </c>
       <c r="Z113" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="114" spans="17:26" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="114" spans="17:26" x14ac:dyDescent="0.3">
       <c r="Q114">
         <v>172</v>
       </c>
@@ -8655,153 +8579,28 @@
         <v>20</v>
       </c>
       <c r="T114">
-        <v>94</v>
+        <f t="shared" si="7"/>
+        <v>100</v>
       </c>
       <c r="U114" t="str">
-        <f t="shared" si="13"/>
-        <v>172.16.20.94</v>
+        <f t="shared" si="6"/>
+        <v>172.16.20.100</v>
       </c>
       <c r="Z114" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="115" spans="17:26" x14ac:dyDescent="0.25">
-      <c r="Q115">
-        <v>172</v>
-      </c>
-      <c r="R115">
-        <v>16</v>
-      </c>
-      <c r="S115">
-        <v>20</v>
-      </c>
-      <c r="T115">
-        <v>95</v>
-      </c>
-      <c r="U115" t="str">
-        <f t="shared" si="13"/>
-        <v>172.16.20.95</v>
-      </c>
-      <c r="Z115" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="116" spans="17:26" x14ac:dyDescent="0.25">
-      <c r="Q116">
-        <v>172</v>
-      </c>
-      <c r="R116">
-        <v>16</v>
-      </c>
-      <c r="S116">
-        <v>20</v>
-      </c>
-      <c r="T116">
-        <v>96</v>
-      </c>
-      <c r="U116" t="str">
-        <f t="shared" si="13"/>
-        <v>172.16.20.96</v>
-      </c>
-      <c r="Z116" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="117" spans="17:26" x14ac:dyDescent="0.25">
-      <c r="Q117">
-        <v>172</v>
-      </c>
-      <c r="R117">
-        <v>16</v>
-      </c>
-      <c r="S117">
-        <v>20</v>
-      </c>
-      <c r="T117">
-        <f>T116+1</f>
-        <v>97</v>
-      </c>
-      <c r="U117" t="str">
-        <f t="shared" si="13"/>
-        <v>172.16.20.97</v>
-      </c>
-      <c r="Z117" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="118" spans="17:26" x14ac:dyDescent="0.25">
-      <c r="Q118">
-        <v>172</v>
-      </c>
-      <c r="R118">
-        <v>16</v>
-      </c>
-      <c r="S118">
-        <v>20</v>
-      </c>
-      <c r="T118">
-        <f t="shared" ref="T118:T120" si="14">T117+1</f>
-        <v>98</v>
-      </c>
-      <c r="U118" t="str">
-        <f t="shared" si="13"/>
-        <v>172.16.20.98</v>
-      </c>
-      <c r="Z118" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="119" spans="17:26" x14ac:dyDescent="0.25">
-      <c r="Q119">
-        <v>172</v>
-      </c>
-      <c r="R119">
-        <v>16</v>
-      </c>
-      <c r="S119">
-        <v>20</v>
-      </c>
-      <c r="T119">
-        <f t="shared" si="14"/>
-        <v>99</v>
-      </c>
-      <c r="U119" t="str">
-        <f t="shared" si="13"/>
-        <v>172.16.20.99</v>
-      </c>
-      <c r="Z119" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="120" spans="17:26" x14ac:dyDescent="0.25">
-      <c r="Q120">
-        <v>172</v>
-      </c>
-      <c r="R120">
-        <v>16</v>
-      </c>
-      <c r="S120">
-        <v>20</v>
-      </c>
-      <c r="T120">
-        <f t="shared" si="14"/>
-        <v>100</v>
-      </c>
-      <c r="U120" t="str">
-        <f t="shared" si="13"/>
-        <v>172.16.20.100</v>
-      </c>
-      <c r="Z120" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <tableParts count="1">
+  <pageMargins left="0.26" right="0" top="0.18" bottom="0.28000000000000003" header="0.11" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="43" fitToWidth="2" orientation="portrait" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="13" max="114" man="1"/>
+  </colBreaks>
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>